--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -6,16 +6,119 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Elements" r:id="rId3" sheetId="1"/>
+    <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$22</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="126">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-referralprescription</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2020-05-12T13:07:15+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Belgium</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Logical model describing the model for the prescription referral. This draft is used in the HL7 Belgian workgroup for referral.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>specialization</t>
+  </si>
   <si>
     <t>Path</t>
   </si>
@@ -120,9 +223,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription</t>
   </si>
   <si>
     <t/>
@@ -428,29 +528,183 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.703125" customWidth="true"/>
+    <col min="2" max="2" width="80.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
+    <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -496,2121 +750,2103 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>7</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" hidden="true">
-      <c r="A2" t="s" s="2">
-        <v>35</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s" s="2">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="AF14" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="AG14" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI22">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI21">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="126">
   <si>
     <t>Property</t>
   </si>
@@ -533,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -621,77 +621,85 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>34</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="127">
   <si>
     <t>Property</t>
   </si>
@@ -225,6 +225,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -240,7 +243,7 @@
     <t>BeReferralPrescription.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {Identifier}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -253,7 +256,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">code {code}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -269,14 +272,17 @@
     <t>BeReferralPrescription.reasonCurrentStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {CodeableConcept}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>Reason current status</t>
+  </si>
+  <si>
     <t>BeReferralPrescription.authoredOn</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {dateTime}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -339,10 +345,6 @@
     <t>BeReferralPrescription.reason</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference
-</t>
-  </si>
-  <si>
     <t>The problem (code or reference) that is the main reason for this prescription</t>
   </si>
   <si>
@@ -367,7 +369,7 @@
     <t>BeReferralPrescription.validityPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {Period}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -710,7 +712,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI22"/>
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -754,6 +756,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
+    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -862,6 +865,9 @@
       <c r="AI1" t="s" s="1">
         <v>69</v>
       </c>
+      <c r="AJ1" t="s" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -869,1989 +875,2094 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>21</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L3" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L4" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L6" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L7" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L8" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L9" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L10" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L11" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L12" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L14" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L15" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L16" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L17" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L18" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L19" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L20" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L21" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L22" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="130">
   <si>
     <t>Property</t>
   </si>
@@ -36,70 +36,73 @@
     <t>Name</t>
   </si>
   <si>
+    <t>BeModelReferralPrescription</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2020-05-12T13:07:15+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Belgium</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Logical model describing the model for the prescription referral. This draft is used in the HL7 Belgian workgroup for referral.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>BeReferralPrescription</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2020-05-12T13:07:15+00:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>HL7 Belgium</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Logical model describing the model for the prescription referral. This draft is used in the HL7 Belgian workgroup for referral.</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>logical</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>Base Definition</t>
@@ -402,6 +405,12 @@
   </si>
   <si>
     <t>Additional text notes about the request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intent</t>
+  </si>
+  <si>
+    <t>Proposal, Prolongation, Prescription</t>
   </si>
 </sst>
 </file>
@@ -678,31 +687,31 @@
         <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +721,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ22"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -761,140 +770,140 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" t="s" s="2">
@@ -903,2066 +912,2166 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="132">
   <si>
     <t>Property</t>
   </si>
@@ -243,7 +243,68 @@
     <t>Base</t>
   </si>
   <si>
-    <t>BeReferralPrescription.identifier</t>
+    <t>BeReferralPrescription.recordedDate</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When this prescription was created</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Information about co prescribers</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
+  </si>
+  <si>
+    <t>The co-prescriber party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.co-prescriberType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Type of the practitioner</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>Status of co prescribing status (to sign, signed or refused)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.patient</t>
+  </si>
+  <si>
+    <t>The SSIN of the person for which the referral is prescribed.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
@@ -253,148 +314,93 @@
     <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
   </si>
   <si>
-    <t>BeReferralPrescription.status</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
+    <t>BeReferralPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Current status</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.reasonCurrentStatus</t>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>The required discipline of the provider party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>What is prescribed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>The problem (code or reference) that is the main reason for this prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>Parties that shall be informed of the results of the prescription other then the prescriber.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>Current status</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.statusReason</t>
+  </si>
+  <si>
     <t>Reason current status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.authoredOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When this prescription was created</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>The prescribing healthcare party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Information about co prescribers</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
-  </si>
-  <si>
-    <t>The co-prescriber party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriberSubstitute</t>
-  </si>
-  <si>
-    <t>NIHDI of co prescriber substitute party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.status</t>
-  </si>
-  <si>
-    <t>Status of co prescribing status (to sign, signed or refused)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.patient</t>
-  </si>
-  <si>
-    <t>The SSIN of the person for which the referral is prescribed.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.originalRequest</t>
-  </si>
-  <si>
-    <t>The original request or prescription triggered this prescription</t>
-  </si>
-  <si>
-    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.reason</t>
-  </si>
-  <si>
-    <t>The problem (code or reference) that is the main reason for this prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
-  </si>
-  <si>
-    <t>The required discipline of the provider party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.validityPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period of validity of prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.executionPeriod</t>
-  </si>
-  <si>
-    <t>When this prescription is executed, available after start of execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescribedService</t>
-  </si>
-  <si>
-    <t>What is prescribed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t>Parties that shall be informed of the results of the prescription other then the prescriber.</t>
   </si>
   <si>
     <t>BeReferralPrescription.note</t>
@@ -721,7 +727,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -730,7 +736,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.4140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.51171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -760,7 +766,7 @@
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="56.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -986,10 +992,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>72</v>
@@ -1001,13 +1007,13 @@
         <v>72</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1061,10 +1067,10 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -1078,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1086,10 +1092,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>72</v>
@@ -1134,11 +1140,13 @@
         <v>72</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X4" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Y4" t="s" s="2">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="Z4" t="s" s="2">
         <v>72</v>
@@ -1156,13 +1164,13 @@
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>72</v>
@@ -1176,7 +1184,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1184,10 +1192,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
@@ -1199,13 +1207,13 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1256,13 +1264,13 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
@@ -1276,7 +1284,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1284,10 +1292,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -1299,13 +1307,13 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1356,13 +1364,13 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
@@ -1376,7 +1384,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1384,10 +1392,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -1399,13 +1407,13 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1456,13 +1464,13 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
@@ -1476,7 +1484,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1487,7 +1495,7 @@
         <v>73</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>72</v>
@@ -1499,13 +1507,13 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1556,13 +1564,13 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
@@ -1576,7 +1584,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1584,10 +1592,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>72</v>
@@ -1599,13 +1607,13 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1656,13 +1664,13 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
@@ -1676,7 +1684,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1687,7 +1695,7 @@
         <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>72</v>
@@ -1699,13 +1707,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1756,13 +1764,13 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>72</v>
@@ -1776,7 +1784,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1784,10 +1792,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -1802,10 +1810,10 @@
         <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1856,13 +1864,13 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
@@ -1876,7 +1884,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1884,10 +1892,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>72</v>
@@ -1899,13 +1907,13 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1956,13 +1964,13 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>72</v>
@@ -1976,7 +1984,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1987,7 +1995,7 @@
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -1999,13 +2007,13 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2056,13 +2064,13 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
@@ -2076,7 +2084,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2087,7 +2095,7 @@
         <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -2099,13 +2107,13 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2156,13 +2164,13 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>
@@ -2176,7 +2184,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2199,13 +2207,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2256,7 +2264,7 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
@@ -2276,7 +2284,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2299,13 +2307,13 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2356,7 +2364,7 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -2376,7 +2384,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2384,10 +2392,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>72</v>
@@ -2399,13 +2407,13 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2456,13 +2464,13 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
@@ -2476,7 +2484,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2484,10 +2492,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
@@ -2499,13 +2507,13 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2556,13 +2564,13 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
@@ -2576,7 +2584,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2587,7 +2595,7 @@
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>72</v>
@@ -2599,13 +2607,13 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2656,13 +2664,13 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
@@ -2676,7 +2684,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2684,10 +2692,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>72</v>
@@ -2699,13 +2707,13 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2756,13 +2764,13 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
@@ -2776,7 +2784,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2784,10 +2792,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -2799,13 +2807,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2832,13 +2840,11 @@
         <v>72</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>72</v>
@@ -2856,13 +2862,13 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
@@ -2887,7 +2893,7 @@
         <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
@@ -2899,13 +2905,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2962,7 +2968,7 @@
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
@@ -2976,7 +2982,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2984,10 +2990,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>72</v>
@@ -2999,7 +3005,7 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>129</v>
@@ -3056,13 +3062,13 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>72</v>
@@ -3071,6 +3077,106 @@
         <v>72</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="134">
   <si>
     <t>Property</t>
   </si>
@@ -388,13 +388,19 @@
     <t>BeReferralPrescription.status</t>
   </si>
   <si>
-    <t>Current status</t>
+    <t>Status of the requisition</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.clinicalStatus</t>
+  </si>
+  <si>
+    <t>Status of the execution</t>
   </si>
   <si>
     <t>BeReferralPrescription.statusReason</t>
@@ -727,7 +733,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2905,7 +2911,7 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>126</v>
@@ -3005,13 +3011,13 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="L23" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3082,7 +3088,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3090,7 +3096,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>77</v>
@@ -3105,7 +3111,7 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>131</v>
@@ -3162,10 +3168,10 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3177,6 +3183,106 @@
         <v>72</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="136">
   <si>
     <t>Property</t>
   </si>
@@ -379,6 +379,12 @@
     <t>The problem (code or reference) that is the main reason for this prescription</t>
   </si>
   <si>
+    <t>BeReferralPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>Care Set Problem</t>
+  </si>
+  <si>
     <t>BeReferralPrescription.resultReceiver</t>
   </si>
   <si>
@@ -388,7 +394,7 @@
     <t>BeReferralPrescription.status</t>
   </si>
   <si>
-    <t>Status of the requisition</t>
+    <t>Current status</t>
   </si>
   <si>
     <t>required</t>
@@ -397,16 +403,16 @@
     <t>http://hl7.org/fhir/ValueSet/request-status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.clinicalStatus</t>
-  </si>
-  <si>
-    <t>Status of the execution</t>
-  </si>
-  <si>
     <t>BeReferralPrescription.statusReason</t>
   </si>
   <si>
     <t>Reason current status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>Anatomical place where the treatment should be executed</t>
   </si>
   <si>
     <t>BeReferralPrescription.note</t>
@@ -733,7 +739,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1701,7 +1707,7 @@
         <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>72</v>
@@ -1776,7 +1782,7 @@
         <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>72</v>
@@ -1801,7 +1807,7 @@
         <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -1876,7 +1882,7 @@
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
@@ -2598,10 +2604,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>72</v>
@@ -2673,10 +2679,10 @@
         <v>117</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
@@ -2701,7 +2707,7 @@
         <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>72</v>
@@ -2776,7 +2782,7 @@
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
@@ -2798,10 +2804,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -2813,7 +2819,7 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>122</v>
@@ -2846,11 +2852,13 @@
         <v>72</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>72</v>
@@ -2871,10 +2879,10 @@
         <v>121</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
@@ -2888,7 +2896,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2914,10 +2922,10 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2944,13 +2952,11 @@
         <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>72</v>
@@ -2968,7 +2974,7 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -3099,7 +3105,7 @@
         <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>72</v>
@@ -3111,13 +3117,13 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3174,7 +3180,7 @@
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
@@ -3188,7 +3194,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3196,10 +3202,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>72</v>
@@ -3211,7 +3217,7 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>133</v>
@@ -3268,13 +3274,13 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
@@ -3283,6 +3289,106 @@
         <v>72</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-referralprescription</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-model-referralprescription</t>
   </si>
   <si>
     <t>Version</t>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="137">
   <si>
     <t>Property</t>
   </si>
@@ -388,7 +388,11 @@
     <t>BeReferralPrescription.resultReceiver</t>
   </si>
   <si>
-    <t>Parties that shall be informed of the results of the prescription other then the prescriber.</t>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
   </si>
   <si>
     <t>BeReferralPrescription.status</t>
@@ -2807,7 +2811,7 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -2819,13 +2823,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2882,7 +2886,7 @@
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
@@ -2896,7 +2900,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2922,10 +2926,10 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2952,11 +2956,11 @@
         <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>72</v>
@@ -2974,7 +2978,7 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -2994,7 +2998,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3020,10 +3024,10 @@
         <v>113</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3074,7 +3078,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
@@ -3094,7 +3098,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3120,10 +3124,10 @@
         <v>113</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3174,7 +3178,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
@@ -3194,7 +3198,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3217,13 +3221,13 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3274,7 +3278,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -3294,7 +3298,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3320,10 +3324,10 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3374,7 +3378,7 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="155">
   <si>
     <t>Property</t>
   </si>
@@ -314,6 +314,28 @@
     <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
   </si>
   <si>
+    <t>BeReferralPrescription.ppsNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Proposal Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.ppsRejectionReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Reason for not following the PPS suggestion</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requisition</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to. The type of bundle can be indicated in the type of the identifier</t>
+  </si>
+  <si>
     <t>BeReferralPrescription.basedOn</t>
   </si>
   <si>
@@ -345,19 +367,19 @@
     <t>The latest moment to end this treatment</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider</t>
+    <t>BeReferralPrescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -367,6 +389,18 @@
     <t>The required discipline of the provider party</t>
   </si>
   <si>
+    <t>BeReferralPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>Start and enddate for the particular provider</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.toBePerformedAfter</t>
+  </si>
+  <si>
+    <t>The current prescription should be performed after this one</t>
+  </si>
+  <si>
     <t>BeReferralPrescription.serviceRequested</t>
   </si>
   <si>
@@ -413,17 +447,37 @@
     <t>Reason current status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodySite</t>
+    <t>BeReferralPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>Status of the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>Reason treatment status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>Place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.bodySite</t>
   </si>
   <si>
     <t>Anatomical place where the treatment should be executed</t>
   </si>
   <si>
+    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
+  </si>
+  <si>
+    <t>Side of the body</t>
+  </si>
+  <si>
     <t>BeReferralPrescription.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
   </si>
   <si>
     <t>Additional text notes about the request.</t>
@@ -743,7 +797,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ26"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1811,7 +1865,7 @@
         <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -1823,13 +1877,13 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>99</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1886,7 +1940,7 @@
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
@@ -1900,7 +1954,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1908,7 +1962,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>77</v>
@@ -1923,13 +1977,13 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1980,10 +2034,10 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2000,7 +2054,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2023,13 +2077,13 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2080,7 +2134,7 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
@@ -2100,7 +2154,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2111,7 +2165,7 @@
         <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -2123,10 +2177,10 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>107</v>
@@ -2180,13 +2234,13 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>
@@ -2208,10 +2262,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -2223,13 +2277,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2283,10 +2337,10 @@
         <v>108</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
@@ -2300,7 +2354,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2311,7 +2365,7 @@
         <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>72</v>
@@ -2323,13 +2377,13 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2380,13 +2434,13 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
@@ -2400,7 +2454,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2408,7 +2462,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>77</v>
@@ -2423,7 +2477,7 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>114</v>
@@ -2480,10 +2534,10 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -2508,10 +2562,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
@@ -2523,7 +2577,7 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>116</v>
@@ -2583,10 +2637,10 @@
         <v>115</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
@@ -2608,10 +2662,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>72</v>
@@ -2683,10 +2737,10 @@
         <v>117</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
@@ -2708,7 +2762,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>77</v>
@@ -2723,13 +2777,13 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2783,7 +2837,7 @@
         <v>119</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -2800,7 +2854,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2808,7 +2862,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>77</v>
@@ -2823,7 +2877,7 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>123</v>
@@ -2880,10 +2934,10 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -2923,7 +2977,7 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>125</v>
@@ -2956,11 +3010,13 @@
         <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>72</v>
@@ -2998,7 +3054,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3006,7 +3062,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>77</v>
@@ -3021,13 +3077,13 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3078,10 +3134,10 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3098,7 +3154,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3106,10 +3162,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>72</v>
@@ -3121,13 +3177,13 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3178,13 +3234,13 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
@@ -3198,7 +3254,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3209,7 +3265,7 @@
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>72</v>
@@ -3221,13 +3277,13 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3278,13 +3334,13 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
@@ -3298,7 +3354,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3306,7 +3362,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>77</v>
@@ -3321,13 +3377,13 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3378,21 +3434,919 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="X27" s="2"/>
+      <c r="Y27" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -320,7 +320,7 @@
     <t>An identifier for the Prescription Proposal Support</t>
   </si>
   <si>
-    <t>BeReferralPrescription.ppsRejectionReason</t>
+    <t>BeReferralPrescription.ppsDenialReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="157">
   <si>
     <t>Property</t>
   </si>
@@ -393,6 +393,12 @@
   </si>
   <si>
     <t>Start and enddate for the particular provider</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>Reference to an organization that will add the performer</t>
   </si>
   <si>
     <t>BeReferralPrescription.toBePerformedAfter</t>
@@ -797,7 +803,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -806,7 +812,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.5390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -836,7 +842,7 @@
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="51.5390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -3062,7 +3068,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>77</v>
@@ -3077,7 +3083,7 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>127</v>
@@ -3137,7 +3143,7 @@
         <v>126</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3177,7 +3183,7 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>129</v>
@@ -3262,7 +3268,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>77</v>
@@ -3337,7 +3343,7 @@
         <v>130</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3377,13 +3383,13 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3454,7 +3460,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3477,7 +3483,7 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>136</v>
@@ -3510,11 +3516,13 @@
         <v>72</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>72</v>
@@ -3532,7 +3540,7 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
@@ -3552,7 +3560,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3575,13 +3583,13 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3608,13 +3616,11 @@
         <v>72</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>72</v>
@@ -3632,7 +3638,7 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
@@ -3863,7 +3869,7 @@
         <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>72</v>
@@ -3875,7 +3881,7 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>146</v>
@@ -3938,7 +3944,7 @@
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
@@ -3963,7 +3969,7 @@
         <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>72</v>
@@ -3975,7 +3981,7 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>148</v>
@@ -4038,7 +4044,7 @@
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
@@ -4163,7 +4169,7 @@
         <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>72</v>
@@ -4175,7 +4181,7 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>152</v>
@@ -4238,7 +4244,7 @@
         <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>72</v>
@@ -4260,10 +4266,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>72</v>
@@ -4275,7 +4281,7 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>154</v>
@@ -4335,10 +4341,10 @@
         <v>153</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>72</v>
@@ -4347,6 +4353,106 @@
         <v>72</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -320,7 +320,7 @@
     <t>An identifier for the Prescription Proposal Support</t>
   </si>
   <si>
-    <t>BeReferralPrescription.ppsDenialReason</t>
+    <t>BeReferralPrescription.ppsRejectionReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="159">
   <si>
     <t>Property</t>
   </si>
@@ -256,11 +256,17 @@
     <t>When this prescription was created</t>
   </si>
   <si>
-    <t>BeReferralPrescription.prescriber</t>
+    <t>BeReferralPrescription.recorder</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
+  </si>
+  <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescriber</t>
   </si>
   <si>
     <t>The prescribing healthcare party</t>
@@ -803,7 +809,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -822,7 +828,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="139.328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="148.01953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1268,10 +1274,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
@@ -1283,13 +1289,13 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1343,10 +1349,10 @@
         <v>83</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
@@ -1360,7 +1366,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1371,7 +1377,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -1383,7 +1389,7 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>87</v>
@@ -1440,13 +1446,13 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
@@ -1483,13 +1489,13 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1560,7 +1566,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1583,7 +1589,7 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>92</v>
@@ -1640,7 +1646,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -1668,7 +1674,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>77</v>
@@ -1683,7 +1689,7 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>94</v>
@@ -1743,7 +1749,7 @@
         <v>93</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -1768,7 +1774,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>77</v>
@@ -1783,13 +1789,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1843,7 +1849,7 @@
         <v>95</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -1860,7 +1866,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1883,7 +1889,7 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>99</v>
@@ -1940,7 +1946,7 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -1983,13 +1989,13 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2060,7 +2066,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2083,7 +2089,7 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>104</v>
@@ -2140,7 +2146,7 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
@@ -2171,7 +2177,7 @@
         <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -2183,13 +2189,13 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2246,7 +2252,7 @@
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>
@@ -2260,7 +2266,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2268,10 +2274,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -2283,13 +2289,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2340,13 +2346,13 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
@@ -2360,7 +2366,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2368,7 +2374,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>77</v>
@@ -2383,7 +2389,7 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>112</v>
@@ -2440,10 +2446,10 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -2483,7 +2489,7 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>114</v>
@@ -2571,7 +2577,7 @@
         <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
@@ -2583,7 +2589,7 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>116</v>
@@ -2646,7 +2652,7 @@
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
@@ -2683,7 +2689,7 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>118</v>
@@ -2768,10 +2774,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>72</v>
@@ -2783,13 +2789,13 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="L20" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2843,10 +2849,10 @@
         <v>119</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
@@ -2860,7 +2866,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2883,7 +2889,7 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>123</v>
@@ -2940,7 +2946,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -2968,7 +2974,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>77</v>
@@ -2983,7 +2989,7 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>125</v>
@@ -3043,7 +3049,7 @@
         <v>124</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3168,7 +3174,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>77</v>
@@ -3183,7 +3189,7 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>129</v>
@@ -3243,7 +3249,7 @@
         <v>128</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3283,7 +3289,7 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>131</v>
@@ -3368,7 +3374,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>77</v>
@@ -3443,7 +3449,7 @@
         <v>132</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -3483,13 +3489,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L27" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3560,7 +3566,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3583,7 +3589,7 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>138</v>
@@ -3616,11 +3622,13 @@
         <v>72</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>72</v>
@@ -3638,7 +3646,7 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
@@ -3658,7 +3666,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3681,13 +3689,13 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3714,13 +3722,11 @@
         <v>72</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>72</v>
@@ -3738,7 +3744,7 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -3781,7 +3787,7 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>144</v>
@@ -3881,7 +3887,7 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>146</v>
@@ -3969,7 +3975,7 @@
         <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>72</v>
@@ -3981,7 +3987,7 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>148</v>
@@ -4044,7 +4050,7 @@
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
@@ -4069,7 +4075,7 @@
         <v>73</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>72</v>
@@ -4081,7 +4087,7 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>150</v>
@@ -4144,7 +4150,7 @@
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
@@ -4181,7 +4187,7 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>152</v>
@@ -4269,7 +4275,7 @@
         <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>72</v>
@@ -4281,7 +4287,7 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>154</v>
@@ -4344,7 +4350,7 @@
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>72</v>
@@ -4366,10 +4372,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>72</v>
@@ -4381,7 +4387,7 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>156</v>
@@ -4441,10 +4447,10 @@
         <v>155</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>72</v>
@@ -4453,6 +4459,106 @@
         <v>72</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="161">
   <si>
     <t>Property</t>
   </si>
@@ -371,6 +371,12 @@
   </si>
   <si>
     <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
   </si>
   <si>
     <t>BeReferralPrescription.intendedPerformer</t>
@@ -809,7 +815,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2677,7 +2683,7 @@
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>72</v>
@@ -2689,7 +2695,7 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>118</v>
@@ -2752,7 +2758,7 @@
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
@@ -2789,7 +2795,7 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>120</v>
@@ -2874,10 +2880,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -2889,13 +2895,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>123</v>
-      </c>
       <c r="L21" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2949,10 +2955,10 @@
         <v>121</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
@@ -2966,7 +2972,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2989,7 +2995,7 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>125</v>
@@ -3046,7 +3052,7 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3074,7 +3080,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>77</v>
@@ -3089,7 +3095,7 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>127</v>
@@ -3149,7 +3155,7 @@
         <v>126</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3274,7 +3280,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>77</v>
@@ -3289,7 +3295,7 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>131</v>
@@ -3349,7 +3355,7 @@
         <v>130</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3389,7 +3395,7 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>133</v>
@@ -3474,7 +3480,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>77</v>
@@ -3549,7 +3555,7 @@
         <v>134</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -3589,13 +3595,13 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L28" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3666,7 +3672,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3689,7 +3695,7 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>140</v>
@@ -3722,11 +3728,13 @@
         <v>72</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>72</v>
@@ -3744,7 +3752,7 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -3764,7 +3772,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3787,13 +3795,13 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3820,13 +3828,11 @@
         <v>72</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>72</v>
@@ -3844,7 +3850,7 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
@@ -3887,7 +3893,7 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>146</v>
@@ -3987,7 +3993,7 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>148</v>
@@ -4075,7 +4081,7 @@
         <v>73</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>72</v>
@@ -4087,7 +4093,7 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>150</v>
@@ -4150,7 +4156,7 @@
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
@@ -4175,7 +4181,7 @@
         <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>72</v>
@@ -4187,7 +4193,7 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>152</v>
@@ -4250,7 +4256,7 @@
         <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>72</v>
@@ -4287,7 +4293,7 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>154</v>
@@ -4375,7 +4381,7 @@
         <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>72</v>
@@ -4387,7 +4393,7 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>156</v>
@@ -4450,7 +4456,7 @@
         <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>72</v>
@@ -4472,10 +4478,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>72</v>
@@ -4487,7 +4493,7 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>158</v>
@@ -4547,10 +4553,10 @@
         <v>157</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>72</v>
@@ -4559,6 +4565,106 @@
         <v>72</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="164">
   <si>
     <t>Property</t>
   </si>
@@ -339,7 +339,21 @@
     <t>BeReferralPrescription.requisition</t>
   </si>
   <si>
-    <t>An identifier for the bundle this prescription belongs to. The type of bundle can be indicated in the type of the identifier</t>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requistionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The type of bundle can be indicated in the type of the identifier</t>
   </si>
   <si>
     <t>BeReferralPrescription.basedOn</t>
@@ -392,10 +406,6 @@
   </si>
   <si>
     <t>BeReferralPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>The required discipline of the provider party</t>
@@ -815,7 +825,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ38"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2195,14 +2205,12 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2272,7 +2280,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2283,7 +2291,7 @@
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -2295,14 +2303,12 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2352,13 +2358,13 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
@@ -2372,7 +2378,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2380,10 +2386,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>72</v>
@@ -2395,13 +2401,13 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>112</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2452,13 +2458,13 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
@@ -2472,7 +2478,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2480,7 +2486,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>77</v>
@@ -2495,13 +2501,13 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2552,10 +2558,10 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -2572,7 +2578,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2595,13 +2601,13 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2652,7 +2658,7 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
@@ -2672,7 +2678,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2698,10 +2704,10 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2752,7 +2758,7 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
@@ -2772,7 +2778,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2783,7 +2789,7 @@
         <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>72</v>
@@ -2795,13 +2801,13 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2852,13 +2858,13 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
@@ -2872,7 +2878,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2895,13 +2901,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2952,7 +2958,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
@@ -2972,7 +2978,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2980,10 +2986,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
@@ -2995,13 +3001,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3052,13 +3058,13 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
@@ -3072,7 +3078,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3095,13 +3101,13 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3152,7 +3158,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -3172,7 +3178,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3180,7 +3186,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>77</v>
@@ -3195,13 +3201,13 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3252,10 +3258,10 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3272,7 +3278,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3298,10 +3304,10 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3352,7 +3358,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -3372,7 +3378,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3380,7 +3386,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>77</v>
@@ -3395,13 +3401,13 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3452,10 +3458,10 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -3472,7 +3478,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3495,13 +3501,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3552,7 +3558,7 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -3572,7 +3578,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3580,7 +3586,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>77</v>
@@ -3598,10 +3604,10 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3652,10 +3658,10 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -3672,7 +3678,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3695,7 +3701,7 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>140</v>
@@ -3752,7 +3758,7 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -3795,13 +3801,13 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3828,11 +3834,13 @@
         <v>72</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>72</v>
@@ -3870,7 +3878,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3893,13 +3901,13 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3926,13 +3934,11 @@
         <v>72</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>72</v>
@@ -3950,7 +3956,7 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -3970,7 +3976,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3993,13 +3999,13 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4050,7 +4056,7 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
@@ -4070,7 +4076,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4093,13 +4099,13 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4150,7 +4156,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -4170,7 +4176,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4181,7 +4187,7 @@
         <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>72</v>
@@ -4193,13 +4199,13 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4250,13 +4256,13 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>72</v>
@@ -4270,7 +4276,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4281,7 +4287,7 @@
         <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>72</v>
@@ -4293,13 +4299,13 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4350,13 +4356,13 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>72</v>
@@ -4370,7 +4376,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4393,13 +4399,13 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4450,7 +4456,7 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -4470,7 +4476,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4481,7 +4487,7 @@
         <v>73</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>72</v>
@@ -4493,13 +4499,13 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4550,13 +4556,13 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>72</v>
@@ -4570,7 +4576,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4578,10 +4584,10 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>72</v>
@@ -4593,13 +4599,13 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4650,13 +4656,13 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
@@ -4665,6 +4671,106 @@
         <v>72</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -320,20 +320,20 @@
     <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
   </si>
   <si>
-    <t>BeReferralPrescription.ppsNumber</t>
-  </si>
-  <si>
-    <t>An identifier for the Prescription Proposal Support</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.ppsRejectionReason</t>
+    <t>BeReferralPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Search Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssRejectionReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
-    <t>Reason for not following the PPS suggestion</t>
+    <t>Reason for not following the PSS suggestion</t>
   </si>
   <si>
     <t>BeReferralPrescription.requisition</t>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -834,42 +834,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.5390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.54296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="148.01953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="148.0234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="39.53515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.5390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="51.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>77</v>
@@ -1665,7 +1665,7 @@
         <v>90</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -1890,7 +1890,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>77</v>
@@ -1965,7 +1965,7 @@
         <v>97</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -2886,7 +2886,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>74</v>
@@ -2961,7 +2961,7 @@
         <v>123</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -2989,7 +2989,7 @@
         <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
@@ -3064,7 +3064,7 @@
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -3186,7 +3186,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>77</v>
@@ -3261,7 +3261,7 @@
         <v>129</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="137">
   <si>
     <t>Property</t>
   </si>
@@ -256,19 +256,13 @@
     <t>When this prescription was created</t>
   </si>
   <si>
-    <t>BeReferralPrescription.recorder</t>
+    <t>BeReferralPrescription.prescriber</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
-    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescriber</t>
-  </si>
-  <si>
     <t>The prescribing healthcare party</t>
   </si>
   <si>
@@ -320,192 +314,116 @@
     <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
   </si>
   <si>
-    <t>BeReferralPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>An identifier for the Prescription Search Support</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.pssRejectionReason</t>
+    <t>BeReferralPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The required discipline of the provider party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>What is prescribed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>The problem (code or reference) that is the main reason for this prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>Care Set Problem</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>Current status</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>Reason current status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>Anatomical place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.note</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
 </t>
-  </si>
-  <si>
-    <t>Reason for not following the PSS suggestion</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.requisition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>An identifier for the bundle this prescription belongs to.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.requistionType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>The type of bundle can be indicated in the type of the identifier</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>The original request or prescription triggered this prescription</t>
-  </si>
-  <si>
-    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period of validity of prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>When this prescription is executed, available after start of execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>The latest moment to end this treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>The prescription must have left the draft status before</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t>The required discipline of the provider party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>Start and enddate for the particular provider</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>Reference to an organization that will add the performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.toBePerformedAfter</t>
-  </si>
-  <si>
-    <t>The current prescription should be performed after this one</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>What is prescribed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>The problem (code or reference) that is the main reason for this prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>Care Set Problem</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.status</t>
-  </si>
-  <si>
-    <t>Current status</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>Reason current status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>Status of the treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>Reason treatment status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>Place where the treatment should be executed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>Anatomical place where the treatment should be executed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>Side of the body</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.note</t>
   </si>
   <si>
     <t>Additional text notes about the request.</t>
@@ -825,7 +743,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -834,7 +752,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.54296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.51171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -844,7 +762,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="148.0234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="139.328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -864,7 +782,7 @@
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -1290,10 +1208,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
@@ -1305,13 +1223,13 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1365,10 +1283,10 @@
         <v>83</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
@@ -1382,7 +1300,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1393,7 +1311,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -1405,7 +1323,7 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>87</v>
@@ -1462,13 +1380,13 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
@@ -1505,13 +1423,13 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1582,7 +1500,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1590,7 +1508,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>77</v>
@@ -1605,7 +1523,7 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>92</v>
@@ -1662,10 +1580,10 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -1690,7 +1608,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>77</v>
@@ -1705,7 +1623,7 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>94</v>
@@ -1765,7 +1683,7 @@
         <v>93</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -1790,7 +1708,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>77</v>
@@ -1805,13 +1723,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1865,7 +1783,7 @@
         <v>95</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -1882,7 +1800,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1890,10 +1808,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -1905,13 +1823,13 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>99</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1962,13 +1880,13 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
@@ -1982,7 +1900,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1990,7 +1908,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>77</v>
@@ -2005,13 +1923,13 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2062,10 +1980,10 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2082,7 +2000,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2105,13 +2023,13 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2162,7 +2080,7 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
@@ -2182,7 +2100,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2205,12 +2123,14 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2260,7 +2180,7 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
@@ -2291,7 +2211,7 @@
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -2303,12 +2223,14 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L15" s="2"/>
+      <c r="L15" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2364,7 +2286,7 @@
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
@@ -2378,7 +2300,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2404,10 +2326,10 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2458,7 +2380,7 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -2478,7 +2400,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2501,13 +2423,13 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2558,7 +2480,7 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -2578,7 +2500,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2586,7 +2508,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>77</v>
@@ -2601,13 +2523,13 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2658,10 +2580,10 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -2678,7 +2600,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2686,7 +2608,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>77</v>
@@ -2701,13 +2623,13 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2758,10 +2680,10 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -2778,7 +2700,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2801,13 +2723,13 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2858,7 +2780,7 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
@@ -2878,7 +2800,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2886,10 +2808,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -2901,13 +2823,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2958,13 +2880,13 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
@@ -2978,7 +2900,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3001,13 +2923,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3034,13 +2956,11 @@
         <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>72</v>
@@ -3058,7 +2978,7 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -3078,7 +2998,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3086,7 +3006,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>77</v>
@@ -3101,13 +3021,13 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3158,10 +3078,10 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3178,7 +3098,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3189,7 +3109,7 @@
         <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>72</v>
@@ -3201,13 +3121,13 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3258,13 +3178,13 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
@@ -3278,7 +3198,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3289,7 +3209,7 @@
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>72</v>
@@ -3301,13 +3221,13 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3358,13 +3278,13 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
@@ -3378,7 +3298,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3386,7 +3306,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>77</v>
@@ -3401,13 +3321,13 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3458,10 +3378,10 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -3473,1304 +3393,6 @@
         <v>72</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="X31" s="2"/>
-      <c r="Y31" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="166">
   <si>
     <t>Property</t>
   </si>
@@ -256,14 +256,30 @@
     <t>When this prescription was created</t>
   </si>
   <si>
-    <t>BeReferralPrescription.prescriber</t>
+    <t>BeReferralPrescription.recorder</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
     <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriberNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Number of co-prescribers that must sign the prescription to activate it</t>
   </si>
   <si>
     <t>BeReferralPrescription.co-prescriber</t>
@@ -314,6 +330,38 @@
     <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
   </si>
   <si>
+    <t>BeReferralPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Search Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Reason for not following the PSS suggestion</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requisition</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requistionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The type of bundle can be indicated in the type of the identifier</t>
+  </si>
+  <si>
     <t>BeReferralPrescription.basedOn</t>
   </si>
   <si>
@@ -345,26 +393,46 @@
     <t>The latest moment to end this treatment</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider</t>
+    <t>BeReferralPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
+    <t>BeReferralPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t>The required discipline of the provider party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>Start and enddate for the particular provider</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>Reference to an organization that will add the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.toBePerformedAfter</t>
+  </si>
+  <si>
+    <t>The current prescription should be performed after this one</t>
   </si>
   <si>
     <t>BeReferralPrescription.serviceRequested</t>
@@ -413,17 +481,37 @@
     <t>Reason current status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodySite</t>
+    <t>BeReferralPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>Status of the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>Reason treatment status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>Place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.bodySite</t>
   </si>
   <si>
     <t>Anatomical place where the treatment should be executed</t>
   </si>
   <si>
+    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
+  </si>
+  <si>
+    <t>Side of the body</t>
+  </si>
+  <si>
     <t>BeReferralPrescription.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
   </si>
   <si>
     <t>Additional text notes about the request.</t>
@@ -743,7 +831,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ26"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -752,7 +840,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.54296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -762,7 +850,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="139.328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="148.0234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -782,7 +870,7 @@
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="51.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -1208,10 +1296,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
@@ -1223,13 +1311,13 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1283,10 +1371,10 @@
         <v>83</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
@@ -1300,7 +1388,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1308,7 +1396,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>77</v>
@@ -1323,7 +1411,7 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>87</v>
@@ -1380,10 +1468,10 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -1411,7 +1499,7 @@
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -1486,7 +1574,7 @@
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
@@ -1523,7 +1611,7 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>92</v>
@@ -1623,13 +1711,13 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1700,7 +1788,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1723,7 +1811,7 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>97</v>
@@ -1780,7 +1868,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -1808,10 +1896,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -1829,7 +1917,7 @@
         <v>99</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1883,10 +1971,10 @@
         <v>98</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
@@ -1900,7 +1988,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1923,13 +2011,13 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1980,7 +2068,7 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -2000,7 +2088,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2023,13 +2111,13 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2080,7 +2168,7 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
@@ -2100,7 +2188,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2123,7 +2211,7 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>107</v>
@@ -2180,7 +2268,7 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
@@ -2211,7 +2299,7 @@
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -2223,14 +2311,12 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>109</v>
-      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2286,7 +2372,7 @@
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
@@ -2311,7 +2397,7 @@
         <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>72</v>
@@ -2323,14 +2409,12 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2386,7 +2470,7 @@
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
@@ -2400,7 +2484,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2408,10 +2492,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>72</v>
@@ -2423,13 +2507,13 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>114</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2480,13 +2564,13 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
@@ -2500,7 +2584,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2523,13 +2607,13 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2580,7 +2664,7 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -2600,7 +2684,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2608,7 +2692,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>77</v>
@@ -2623,13 +2707,13 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2680,10 +2764,10 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -2700,7 +2784,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2723,13 +2807,13 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2780,7 +2864,7 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
@@ -2800,7 +2884,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2823,13 +2907,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2880,7 +2964,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
@@ -2900,7 +2984,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2908,10 +2992,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
@@ -2926,10 +3010,10 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2956,11 +3040,13 @@
         <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>72</v>
@@ -2978,13 +3064,13 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
@@ -2998,7 +3084,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3021,13 +3107,13 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3078,7 +3164,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
@@ -3098,7 +3184,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3106,10 +3192,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>72</v>
@@ -3121,13 +3207,13 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3178,13 +3264,13 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
@@ -3198,7 +3284,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3209,7 +3295,7 @@
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>72</v>
@@ -3221,13 +3307,13 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3278,13 +3364,13 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
@@ -3298,7 +3384,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3306,7 +3392,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>77</v>
@@ -3321,13 +3407,13 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3378,21 +3464,1419 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X32" s="2"/>
+      <c r="Y32" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="168">
   <si>
     <t>Property</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>Status of co prescribing status (to sign, signed or refused)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.required</t>
+  </si>
+  <si>
+    <t>Type of mandatory for the signature of the co-prescriber (1= required: the co-prescriber SHALL sign to make the prescription valid, 2= conditionally required: the co-prescriber SHALL sign if the number of co-prescribers with a signature is lower than the number in co-prescriber number 3= optional: the signature does not affect the validity of the prescription, but is for information only</t>
   </si>
   <si>
     <t>BeReferralPrescription.patient</t>
@@ -831,7 +837,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -850,7 +856,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="148.0234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1911,7 +1917,7 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>99</v>
@@ -2011,13 +2017,13 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2088,7 +2094,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2096,7 +2102,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>77</v>
@@ -2111,7 +2117,7 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>104</v>
@@ -2168,10 +2174,10 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2211,13 +2217,13 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2288,7 +2294,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2311,12 +2317,14 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2366,7 +2374,7 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
@@ -2409,10 +2417,10 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2484,7 +2492,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2495,7 +2503,7 @@
         <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>72</v>
@@ -2507,14 +2515,12 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>115</v>
-      </c>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2564,13 +2570,13 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
@@ -2584,7 +2590,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2592,10 +2598,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
@@ -2607,13 +2613,13 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2664,13 +2670,13 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
@@ -2684,7 +2690,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2692,7 +2698,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>77</v>
@@ -2707,7 +2713,7 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>120</v>
@@ -2764,10 +2770,10 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -2807,7 +2813,7 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>122</v>
@@ -2992,10 +2998,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
@@ -3007,7 +3013,7 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>126</v>
@@ -3067,10 +3073,10 @@
         <v>125</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
@@ -3092,10 +3098,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>72</v>
@@ -3107,7 +3113,7 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>128</v>
@@ -3167,10 +3173,10 @@
         <v>127</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>72</v>
@@ -3192,7 +3198,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>77</v>
@@ -3207,7 +3213,7 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>130</v>
@@ -3267,7 +3273,7 @@
         <v>129</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3292,7 +3298,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>77</v>
@@ -3307,7 +3313,7 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>132</v>
@@ -3367,7 +3373,7 @@
         <v>131</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3407,7 +3413,7 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>134</v>
@@ -3592,7 +3598,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>77</v>
@@ -3607,7 +3613,7 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>138</v>
@@ -3667,7 +3673,7 @@
         <v>137</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -3707,7 +3713,7 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>140</v>
@@ -3792,7 +3798,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>77</v>
@@ -3867,7 +3873,7 @@
         <v>141</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -3907,13 +3913,13 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="L31" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3984,7 +3990,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4007,7 +4013,7 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>147</v>
@@ -4040,11 +4046,13 @@
         <v>72</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>72</v>
@@ -4062,7 +4070,7 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
@@ -4082,7 +4090,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4105,13 +4113,13 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4138,13 +4146,11 @@
         <v>72</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>72</v>
@@ -4162,7 +4168,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -4205,7 +4211,7 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>153</v>
@@ -4305,7 +4311,7 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>155</v>
@@ -4393,7 +4399,7 @@
         <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>72</v>
@@ -4405,7 +4411,7 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>157</v>
@@ -4468,7 +4474,7 @@
         <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>72</v>
@@ -4493,7 +4499,7 @@
         <v>73</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>72</v>
@@ -4505,7 +4511,7 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>159</v>
@@ -4568,7 +4574,7 @@
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>72</v>
@@ -4605,7 +4611,7 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>161</v>
@@ -4693,7 +4699,7 @@
         <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>72</v>
@@ -4705,7 +4711,7 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>163</v>
@@ -4768,7 +4774,7 @@
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
@@ -4790,10 +4796,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>72</v>
@@ -4805,7 +4811,7 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>165</v>
@@ -4865,10 +4871,10 @@
         <v>164</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
@@ -4877,6 +4883,106 @@
         <v>72</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="170">
   <si>
     <t>Property</t>
   </si>
@@ -433,6 +433,12 @@
   </si>
   <si>
     <t>Reference to an organization that will add the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
+  </si>
+  <si>
+    <t>Period in which the caregiver executes the treatment</t>
   </si>
   <si>
     <t>BeReferralPrescription.toBePerformedAfter</t>
@@ -837,7 +843,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -846,7 +852,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.54296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.9140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -876,7 +882,7 @@
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -3613,7 +3619,7 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>138</v>
@@ -3698,7 +3704,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>77</v>
@@ -3713,7 +3719,7 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>140</v>
@@ -3773,7 +3779,7 @@
         <v>139</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -3813,7 +3819,7 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>142</v>
@@ -3898,7 +3904,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>77</v>
@@ -3973,7 +3979,7 @@
         <v>143</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4013,13 +4019,13 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>147</v>
-      </c>
       <c r="L32" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4090,7 +4096,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4113,7 +4119,7 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>149</v>
@@ -4146,11 +4152,13 @@
         <v>72</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>72</v>
@@ -4168,7 +4176,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -4188,7 +4196,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4211,13 +4219,13 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4244,13 +4252,11 @@
         <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>72</v>
@@ -4268,7 +4274,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -4499,7 +4505,7 @@
         <v>73</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>72</v>
@@ -4511,7 +4517,7 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>159</v>
@@ -4574,7 +4580,7 @@
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>72</v>
@@ -4599,7 +4605,7 @@
         <v>73</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>72</v>
@@ -4611,7 +4617,7 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>161</v>
@@ -4674,7 +4680,7 @@
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
@@ -4799,7 +4805,7 @@
         <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>72</v>
@@ -4811,7 +4817,7 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>165</v>
@@ -4874,7 +4880,7 @@
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
@@ -4896,10 +4902,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>72</v>
@@ -4911,7 +4917,7 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>167</v>
@@ -4971,10 +4977,10 @@
         <v>166</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>72</v>
@@ -4983,6 +4989,106 @@
         <v>72</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -3904,7 +3904,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>77</v>
@@ -3979,7 +3979,7 @@
         <v>143</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -4104,7 +4104,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>77</v>
@@ -4179,7 +4179,7 @@
         <v>147</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -4204,7 +4204,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>77</v>
@@ -4277,7 +4277,7 @@
         <v>150</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="172">
   <si>
     <t>Property</t>
   </si>
@@ -352,74 +352,68 @@
     <t>Reason for not following the PSS suggestion</t>
   </si>
   <si>
-    <t>BeReferralPrescription.requisition</t>
+    <t>BeReferralPrescription.groupIdentifier</t>
   </si>
   <si>
     <t>An identifier for the bundle this prescription belongs to.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.requistionType</t>
+    <t>BeReferralPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>The type of bundle can be indicated in the type of the identifier</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>The original request or prescription triggered this prescription</t>
-  </si>
-  <si>
-    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period of validity of prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>When this prescription is executed, available after start of execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>The latest moment to end this treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>The prescription must have left the draft status before</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
     <t>The required discipline of the provider party</t>
   </si>
   <si>
@@ -441,16 +435,28 @@
     <t>Period in which the caregiver executes the treatment</t>
   </si>
   <si>
-    <t>BeReferralPrescription.toBePerformedAfter</t>
-  </si>
-  <si>
-    <t>The current prescription should be performed after this one</t>
+    <t>BeReferralPrescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>Status of the action executed by the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.statusReason</t>
+  </si>
+  <si>
+    <t>The reason of the status of the action executed by the performer</t>
   </si>
   <si>
     <t>BeReferralPrescription.serviceRequested</t>
   </si>
   <si>
     <t>What is prescribed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequestedDetail</t>
+  </si>
+  <si>
+    <t>More detailed specification of the prescribed act</t>
   </si>
   <si>
     <t>BeReferralPrescription.problemCode</t>
@@ -529,7 +535,7 @@
     <t>Additional text notes about the request.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intent</t>
+    <t>BeReferralPrescription.prescriptionType</t>
   </si>
   <si>
     <t>Proposal, Prolongation, Prescription</t>
@@ -843,7 +849,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2509,7 +2515,7 @@
         <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>72</v>
@@ -2521,12 +2527,14 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2582,7 +2590,7 @@
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
@@ -2604,10 +2612,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
@@ -2619,10 +2627,10 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>117</v>
@@ -2679,10 +2687,10 @@
         <v>115</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
@@ -2704,7 +2712,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>77</v>
@@ -2719,13 +2727,13 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2779,7 +2787,7 @@
         <v>118</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -2796,7 +2804,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2819,13 +2827,13 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2876,7 +2884,7 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
@@ -2896,7 +2904,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2922,10 +2930,10 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2976,7 +2984,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
@@ -2996,7 +3004,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3004,10 +3012,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
@@ -3019,13 +3027,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3076,13 +3084,13 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
@@ -3096,7 +3104,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3104,10 +3112,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>72</v>
@@ -3119,13 +3127,13 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3176,13 +3184,13 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>72</v>
@@ -3196,7 +3204,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3204,7 +3212,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>77</v>
@@ -3219,7 +3227,7 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>130</v>
@@ -3276,10 +3284,10 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3304,7 +3312,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>77</v>
@@ -3319,7 +3327,7 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>132</v>
@@ -3379,7 +3387,7 @@
         <v>131</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3419,7 +3427,7 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>134</v>
@@ -3519,7 +3527,7 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>136</v>
@@ -3619,7 +3627,7 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>138</v>
@@ -3719,7 +3727,7 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>140</v>
@@ -3819,7 +3827,7 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>142</v>
@@ -3919,7 +3927,7 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>144</v>
@@ -4104,7 +4112,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>77</v>
@@ -4119,13 +4127,13 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="L33" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4179,7 +4187,7 @@
         <v>147</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -4196,7 +4204,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4219,7 +4227,7 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>151</v>
@@ -4252,11 +4260,13 @@
         <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>72</v>
@@ -4274,7 +4284,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -4294,7 +4304,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4302,7 +4312,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>77</v>
@@ -4317,13 +4327,13 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4350,13 +4360,11 @@
         <v>72</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>72</v>
@@ -4374,10 +4382,10 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -4417,7 +4425,7 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>157</v>
@@ -4517,7 +4525,7 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>159</v>
@@ -4605,7 +4613,7 @@
         <v>73</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>72</v>
@@ -4617,7 +4625,7 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>161</v>
@@ -4680,7 +4688,7 @@
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
@@ -4705,7 +4713,7 @@
         <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>72</v>
@@ -4717,7 +4725,7 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>163</v>
@@ -4780,7 +4788,7 @@
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
@@ -4817,7 +4825,7 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>165</v>
@@ -4905,7 +4913,7 @@
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>72</v>
@@ -4917,7 +4925,7 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>167</v>
@@ -4980,7 +4988,7 @@
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>72</v>
@@ -5002,10 +5010,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>72</v>
@@ -5017,7 +5025,7 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>169</v>
@@ -5077,10 +5085,10 @@
         <v>168</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>72</v>
@@ -5089,6 +5097,106 @@
         <v>72</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="191">
   <si>
     <t>Property</t>
   </si>
@@ -108,7 +108,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Element</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -240,13 +240,76 @@
     <t>*</t>
   </si>
   <si>
-    <t>Base</t>
+    <t>Base for all elements</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>BeReferralPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
@@ -849,7 +912,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -860,7 +923,7 @@
   <cols>
     <col min="1" max="1" width="54.9140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -885,7 +948,7 @@
     <col min="25" max="25" width="39.53515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1033,7 +1096,9 @@
       <c r="J2" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="L2" t="s" s="2">
         <v>21</v>
       </c>
@@ -1086,7 +1151,7 @@
         <v>72</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>73</v>
@@ -1095,18 +1160,18 @@
         <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1114,10 +1179,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>72</v>
@@ -1129,13 +1194,13 @@
         <v>72</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1186,13 +1251,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -1201,23 +1266,23 @@
         <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>72</v>
@@ -1229,15 +1294,17 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>72</v>
@@ -1274,39 +1341,39 @@
         <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1314,10 +1381,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
@@ -1329,13 +1396,13 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1386,13 +1453,13 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
@@ -1406,7 +1473,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1414,10 +1481,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -1429,13 +1496,13 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1486,13 +1553,13 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
@@ -1506,7 +1573,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1514,10 +1581,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -1529,13 +1596,13 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1586,13 +1653,13 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
@@ -1606,7 +1673,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1614,10 +1681,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>72</v>
@@ -1629,13 +1696,13 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1686,13 +1753,13 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
@@ -1706,7 +1773,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1714,10 +1781,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>72</v>
@@ -1729,13 +1796,13 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1786,13 +1853,13 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
@@ -1806,7 +1873,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1817,7 +1884,7 @@
         <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>72</v>
@@ -1829,13 +1896,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1886,13 +1953,13 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>72</v>
@@ -1906,7 +1973,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1914,10 +1981,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -1929,13 +1996,13 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1986,13 +2053,13 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
@@ -2006,7 +2073,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2014,10 +2081,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>72</v>
@@ -2029,13 +2096,13 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2086,13 +2153,13 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>72</v>
@@ -2106,7 +2173,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2114,10 +2181,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -2129,13 +2196,13 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2186,13 +2253,13 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
@@ -2206,7 +2273,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2214,10 +2281,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -2229,13 +2296,13 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2286,13 +2353,13 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>
@@ -2306,7 +2373,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2314,10 +2381,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -2329,13 +2396,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2386,13 +2453,13 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
@@ -2406,7 +2473,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2417,7 +2484,7 @@
         <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>72</v>
@@ -2429,12 +2496,14 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L16" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2484,13 +2553,13 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
@@ -2504,7 +2573,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2515,7 +2584,7 @@
         <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>72</v>
@@ -2527,13 +2596,13 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2584,13 +2653,13 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
@@ -2604,7 +2673,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2612,10 +2681,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
@@ -2627,14 +2696,12 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2684,13 +2751,13 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
@@ -2704,7 +2771,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2715,7 +2782,7 @@
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>72</v>
@@ -2727,13 +2794,13 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2784,13 +2851,13 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
@@ -2804,7 +2871,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2812,10 +2879,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>72</v>
@@ -2827,13 +2894,13 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2884,13 +2951,13 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
@@ -2904,7 +2971,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2915,7 +2982,7 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -2927,13 +2994,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2984,13 +3051,13 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
@@ -3004,7 +3071,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3012,10 +3079,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
@@ -3027,13 +3094,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3084,13 +3151,13 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
@@ -3104,7 +3171,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3115,7 +3182,7 @@
         <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>72</v>
@@ -3127,13 +3194,13 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3184,13 +3251,13 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>72</v>
@@ -3204,7 +3271,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3212,10 +3279,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>72</v>
@@ -3227,13 +3294,13 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3284,13 +3351,13 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
@@ -3304,7 +3371,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3315,7 +3382,7 @@
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>72</v>
@@ -3327,13 +3394,13 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3384,13 +3451,13 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
@@ -3404,7 +3471,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3412,10 +3479,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>72</v>
@@ -3427,13 +3494,13 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3484,13 +3551,13 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>72</v>
@@ -3504,7 +3571,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3515,7 +3582,7 @@
         <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>72</v>
@@ -3527,13 +3594,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3584,13 +3651,13 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
@@ -3604,7 +3671,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3615,7 +3682,7 @@
         <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>72</v>
@@ -3627,13 +3694,13 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3684,13 +3751,13 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>72</v>
@@ -3704,7 +3771,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3715,7 +3782,7 @@
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>72</v>
@@ -3727,13 +3794,13 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3784,13 +3851,13 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>72</v>
@@ -3804,7 +3871,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3812,10 +3879,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>72</v>
@@ -3827,13 +3894,13 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3884,13 +3951,13 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
@@ -3904,7 +3971,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3915,7 +3982,7 @@
         <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>72</v>
@@ -3927,13 +3994,13 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3984,13 +4051,13 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
@@ -4004,7 +4071,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4012,10 +4079,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>72</v>
@@ -4027,13 +4094,13 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4084,13 +4151,13 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
@@ -4104,7 +4171,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4115,7 +4182,7 @@
         <v>73</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>72</v>
@@ -4127,13 +4194,13 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4184,13 +4251,13 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
@@ -4204,7 +4271,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4212,10 +4279,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>72</v>
@@ -4227,13 +4294,13 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4284,13 +4351,13 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>72</v>
@@ -4304,7 +4371,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4312,10 +4379,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>72</v>
@@ -4327,13 +4394,13 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4360,11 +4427,13 @@
         <v>72</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>72</v>
@@ -4382,13 +4451,13 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>72</v>
@@ -4402,7 +4471,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4410,10 +4479,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>72</v>
@@ -4425,13 +4494,13 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4482,13 +4551,13 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>72</v>
@@ -4502,7 +4571,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4510,10 +4579,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>72</v>
@@ -4525,13 +4594,13 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4558,13 +4627,11 @@
         <v>72</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>72</v>
@@ -4582,13 +4649,13 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>72</v>
@@ -4602,7 +4669,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4613,7 +4680,7 @@
         <v>73</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>72</v>
@@ -4625,13 +4692,13 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4682,13 +4749,13 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
@@ -4702,7 +4769,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4713,7 +4780,7 @@
         <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>72</v>
@@ -4725,13 +4792,13 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4782,13 +4849,13 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
@@ -4802,7 +4869,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4813,7 +4880,7 @@
         <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>72</v>
@@ -4825,13 +4892,13 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4882,13 +4949,13 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
@@ -4902,7 +4969,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -4913,7 +4980,7 @@
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>72</v>
@@ -4925,13 +4992,13 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -4982,13 +5049,13 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>72</v>
@@ -5002,7 +5069,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5013,7 +5080,7 @@
         <v>73</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>72</v>
@@ -5025,13 +5092,13 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5082,13 +5149,13 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>72</v>
@@ -5102,7 +5169,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5110,10 +5177,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>72</v>
@@ -5125,13 +5192,13 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5182,13 +5249,13 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>72</v>
@@ -5197,6 +5264,206 @@
         <v>72</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="208">
   <si>
     <t>Property</t>
   </si>
@@ -355,6 +355,42 @@
     <t>Information about co prescribers</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.id</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.extension</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
   </si>
   <si>
@@ -464,6 +500,15 @@
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
+    <t>BeReferralPrescription.intendedPerformer.id</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.extension</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.modifierExtension</t>
+  </si>
+  <si>
     <t>BeReferralPrescription.intendedPerformer.performer</t>
   </si>
   <si>
@@ -578,6 +623,15 @@
   </si>
   <si>
     <t>Place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.id</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.extension</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.modifierExtension</t>
   </si>
   <si>
     <t>BeReferralPrescription.bodyLocation.bodySite</t>
@@ -912,7 +966,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ45"/>
+  <dimension ref="A1:AJ54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -921,9 +975,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.9140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.7265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -1865,7 +1919,7 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
@@ -1873,7 +1927,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1896,13 +1950,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1953,7 +2007,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -1968,7 +2022,7 @@
         <v>72</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -1977,14 +2031,14 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -1996,15 +2050,17 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>72</v>
@@ -2041,71 +2097,75 @@
         <v>72</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AC11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>72</v>
       </c>
@@ -2153,27 +2213,27 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2181,7 +2241,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>80</v>
@@ -2196,13 +2256,13 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2253,10 +2313,10 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -2273,7 +2333,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2296,13 +2356,13 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2353,7 +2413,7 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>80</v>
@@ -2373,7 +2433,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2381,7 +2441,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>80</v>
@@ -2396,13 +2456,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2453,10 +2513,10 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -2473,7 +2533,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2481,7 +2541,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>80</v>
@@ -2496,13 +2556,13 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2553,10 +2613,10 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -2573,7 +2633,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2581,7 +2641,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>80</v>
@@ -2596,13 +2656,13 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2653,10 +2713,10 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -2673,7 +2733,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2681,7 +2741,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>80</v>
@@ -2696,12 +2756,14 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L18" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2751,10 +2813,10 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -2771,7 +2833,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2782,7 +2844,7 @@
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>72</v>
@@ -2794,13 +2856,13 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2851,13 +2913,13 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
@@ -2871,7 +2933,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2879,7 +2941,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>80</v>
@@ -2894,13 +2956,13 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2951,10 +3013,10 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -2971,7 +3033,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2994,14 +3056,12 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3051,7 +3111,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
@@ -3071,7 +3131,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3082,7 +3142,7 @@
         <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
@@ -3094,13 +3154,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3151,13 +3211,13 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
@@ -3171,7 +3231,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3179,7 +3239,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>80</v>
@@ -3194,13 +3254,13 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3251,10 +3311,10 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -3271,7 +3331,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3279,10 +3339,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>72</v>
@@ -3294,13 +3354,13 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3351,13 +3411,13 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
@@ -3371,7 +3431,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3394,13 +3454,13 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3451,7 +3511,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -3471,7 +3531,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3479,7 +3539,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>80</v>
@@ -3494,13 +3554,13 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3551,10 +3611,10 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -3571,7 +3631,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3579,10 +3639,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>72</v>
@@ -3594,13 +3654,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3651,19 +3711,19 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>72</v>
@@ -3671,7 +3731,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3694,13 +3754,13 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3751,7 +3811,7 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
@@ -3766,23 +3826,23 @@
         <v>72</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>72</v>
@@ -3794,15 +3854,17 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>72</v>
@@ -3839,71 +3901,75 @@
         <v>72</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>72</v>
       </c>
@@ -3951,27 +4017,27 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3994,13 +4060,13 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4051,7 +4117,7 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -4071,7 +4137,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4094,13 +4160,13 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4151,7 +4217,7 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>80</v>
@@ -4171,7 +4237,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4194,13 +4260,13 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4251,7 +4317,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -4271,7 +4337,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4297,10 +4363,10 @@
         <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4351,7 +4417,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -4371,7 +4437,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4394,13 +4460,13 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4451,7 +4517,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -4471,7 +4537,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4479,7 +4545,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>80</v>
@@ -4494,13 +4560,13 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4551,10 +4617,10 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -4571,7 +4637,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4579,7 +4645,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>80</v>
@@ -4594,13 +4660,13 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4627,11 +4693,13 @@
         <v>72</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>72</v>
@@ -4649,10 +4717,10 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -4669,7 +4737,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4677,7 +4745,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>80</v>
@@ -4692,13 +4760,13 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4749,10 +4817,10 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -4769,7 +4837,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4792,13 +4860,13 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4849,7 +4917,7 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
@@ -4869,7 +4937,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4892,13 +4960,13 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4949,7 +5017,7 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
@@ -4969,7 +5037,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -4980,7 +5048,7 @@
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>72</v>
@@ -4992,13 +5060,13 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5049,13 +5117,13 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>72</v>
@@ -5069,7 +5137,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5077,7 +5145,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>80</v>
@@ -5092,7 +5160,7 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>184</v>
@@ -5149,10 +5217,10 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -5177,7 +5245,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>80</v>
@@ -5192,7 +5260,7 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>186</v>
@@ -5225,13 +5293,11 @@
         <v>72</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>72</v>
@@ -5252,7 +5318,7 @@
         <v>185</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -5269,7 +5335,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5280,7 +5346,7 @@
         <v>73</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>72</v>
@@ -5292,13 +5358,13 @@
         <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5349,13 +5415,13 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>72</v>
@@ -5369,7 +5435,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5377,7 +5443,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>80</v>
@@ -5392,13 +5458,13 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5449,10 +5515,10 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -5464,6 +5530,912 @@
         <v>72</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="210">
   <si>
     <t>Property</t>
   </si>
@@ -241,6 +241,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Base for all elements</t>
@@ -1157,10 +1161,10 @@
         <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>21</v>
@@ -1214,7 +1218,7 @@
         <v>73</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>74</v>
@@ -1223,21 +1227,21 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1248,7 +1252,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1260,13 +1264,13 @@
         <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1317,13 +1321,13 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1332,19 +1336,19 @@
         <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1363,16 +1367,16 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1410,19 +1414,19 @@
         <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
@@ -1434,18 +1438,18 @@
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1453,10 +1457,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
@@ -1468,13 +1472,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1525,13 +1529,13 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
@@ -1545,10 +1549,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1556,10 +1560,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -1571,13 +1575,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1628,13 +1632,13 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
@@ -1648,10 +1652,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1659,10 +1663,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -1674,13 +1678,13 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1731,13 +1735,13 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
@@ -1751,10 +1755,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1762,10 +1766,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>73</v>
@@ -1777,13 +1781,13 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1834,13 +1838,13 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>73</v>
@@ -1854,10 +1858,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1880,13 +1884,13 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1937,7 +1941,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -1949,7 +1953,7 @@
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>73</v>
@@ -1957,10 +1961,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1971,7 +1975,7 @@
         <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>73</v>
@@ -1983,13 +1987,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2040,13 +2044,13 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>73</v>
@@ -2055,19 +2059,19 @@
         <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2086,16 +2090,16 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2133,19 +2137,19 @@
         <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -2157,22 +2161,22 @@
         <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2185,25 +2189,25 @@
         <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>73</v>
@@ -2252,7 +2256,7 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
@@ -2264,18 +2268,18 @@
         <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2286,7 +2290,7 @@
         <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -2298,13 +2302,13 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2355,13 +2359,13 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>73</v>
@@ -2375,10 +2379,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2386,10 +2390,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>73</v>
@@ -2401,13 +2405,13 @@
         <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2458,13 +2462,13 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>73</v>
@@ -2478,10 +2482,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2492,7 +2496,7 @@
         <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>73</v>
@@ -2504,13 +2508,13 @@
         <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2561,13 +2565,13 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>73</v>
@@ -2581,10 +2585,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2592,10 +2596,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>73</v>
@@ -2607,13 +2611,13 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2664,13 +2668,13 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>73</v>
@@ -2684,10 +2688,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2695,10 +2699,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -2710,13 +2714,13 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2767,13 +2771,13 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>73</v>
@@ -2787,10 +2791,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2798,10 +2802,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>73</v>
@@ -2813,13 +2817,13 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2870,13 +2874,13 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>73</v>
@@ -2890,10 +2894,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2904,7 +2908,7 @@
         <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -2916,13 +2920,13 @@
         <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2973,13 +2977,13 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>73</v>
@@ -2993,10 +2997,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3007,7 +3011,7 @@
         <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>73</v>
@@ -3019,13 +3023,13 @@
         <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3076,13 +3080,13 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>73</v>
@@ -3096,10 +3100,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3110,7 +3114,7 @@
         <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>73</v>
@@ -3122,10 +3126,10 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3177,13 +3181,13 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>73</v>
@@ -3197,10 +3201,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3223,13 +3227,13 @@
         <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3280,7 +3284,7 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
@@ -3300,10 +3304,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3311,10 +3315,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>73</v>
@@ -3326,13 +3330,13 @@
         <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3383,13 +3387,13 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>73</v>
@@ -3403,10 +3407,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3417,7 +3421,7 @@
         <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>73</v>
@@ -3429,13 +3433,13 @@
         <v>73</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3486,13 +3490,13 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>73</v>
@@ -3506,10 +3510,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3520,7 +3524,7 @@
         <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>73</v>
@@ -3532,13 +3536,13 @@
         <v>73</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3589,13 +3593,13 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>73</v>
@@ -3609,10 +3613,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3623,7 +3627,7 @@
         <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>73</v>
@@ -3635,13 +3639,13 @@
         <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3692,13 +3696,13 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>73</v>
@@ -3712,10 +3716,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3723,7 +3727,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>75</v>
@@ -3738,13 +3742,13 @@
         <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3795,10 +3799,10 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>75</v>
@@ -3807,7 +3811,7 @@
         <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>73</v>
@@ -3815,10 +3819,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3829,7 +3833,7 @@
         <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>73</v>
@@ -3841,13 +3845,13 @@
         <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3898,13 +3902,13 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>73</v>
@@ -3913,19 +3917,19 @@
         <v>73</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -3944,16 +3948,16 @@
         <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -3991,19 +3995,19 @@
         <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
@@ -4015,22 +4019,22 @@
         <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4043,25 +4047,25 @@
         <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>73</v>
@@ -4110,7 +4114,7 @@
         <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
@@ -4122,18 +4126,18 @@
         <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4144,7 +4148,7 @@
         <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>73</v>
@@ -4156,13 +4160,13 @@
         <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4213,13 +4217,13 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>73</v>
@@ -4233,10 +4237,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4244,10 +4248,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>73</v>
@@ -4259,13 +4263,13 @@
         <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4316,13 +4320,13 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>73</v>
@@ -4336,10 +4340,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4350,7 +4354,7 @@
         <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>73</v>
@@ -4362,13 +4366,13 @@
         <v>73</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4419,13 +4423,13 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>73</v>
@@ -4439,10 +4443,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4453,7 +4457,7 @@
         <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>73</v>
@@ -4465,13 +4469,13 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4522,13 +4526,13 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>73</v>
@@ -4542,10 +4546,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4556,7 +4560,7 @@
         <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>73</v>
@@ -4568,13 +4572,13 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4625,13 +4629,13 @@
         <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>73</v>
@@ -4645,10 +4649,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4659,7 +4663,7 @@
         <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>73</v>
@@ -4671,13 +4675,13 @@
         <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4728,13 +4732,13 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>73</v>
@@ -4748,10 +4752,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4762,7 +4766,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>73</v>
@@ -4774,13 +4778,13 @@
         <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4831,13 +4835,13 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>73</v>
@@ -4851,10 +4855,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4862,10 +4866,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>73</v>
@@ -4877,13 +4881,13 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -4934,13 +4938,13 @@
         <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>73</v>
@@ -4954,10 +4958,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -4968,7 +4972,7 @@
         <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>73</v>
@@ -4980,13 +4984,13 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5037,13 +5041,13 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>73</v>
@@ -5057,10 +5061,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5071,7 +5075,7 @@
         <v>74</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>73</v>
@@ -5083,13 +5087,13 @@
         <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5140,13 +5144,13 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>73</v>
@@ -5160,10 +5164,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5174,7 +5178,7 @@
         <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>73</v>
@@ -5186,13 +5190,13 @@
         <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5243,13 +5247,13 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>73</v>
@@ -5263,10 +5267,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5274,10 +5278,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>73</v>
@@ -5289,13 +5293,13 @@
         <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5346,13 +5350,13 @@
         <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>73</v>
@@ -5366,10 +5370,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5377,10 +5381,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>73</v>
@@ -5392,13 +5396,13 @@
         <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5425,11 +5429,11 @@
         <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>73</v>
@@ -5447,13 +5451,13 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>73</v>
@@ -5467,10 +5471,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5481,7 +5485,7 @@
         <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>73</v>
@@ -5493,13 +5497,13 @@
         <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5550,13 +5554,13 @@
         <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>73</v>
@@ -5570,10 +5574,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5584,7 +5588,7 @@
         <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>73</v>
@@ -5596,13 +5600,13 @@
         <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -5653,13 +5657,13 @@
         <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>73</v>
@@ -5673,10 +5677,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5687,7 +5691,7 @@
         <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>73</v>
@@ -5699,13 +5703,13 @@
         <v>73</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5756,13 +5760,13 @@
         <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>73</v>
@@ -5776,10 +5780,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5802,13 +5806,13 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5859,7 +5863,7 @@
         <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
@@ -5871,7 +5875,7 @@
         <v>73</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>73</v>
@@ -5879,10 +5883,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -5893,7 +5897,7 @@
         <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>73</v>
@@ -5905,13 +5909,13 @@
         <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -5962,13 +5966,13 @@
         <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>73</v>
@@ -5977,19 +5981,19 @@
         <v>73</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6008,16 +6012,16 @@
         <v>73</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6055,19 +6059,19 @@
         <v>73</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
@@ -6079,22 +6083,22 @@
         <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6107,25 +6111,25 @@
         <v>73</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>73</v>
@@ -6174,7 +6178,7 @@
         <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
@@ -6186,18 +6190,18 @@
         <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6208,7 +6212,7 @@
         <v>74</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>73</v>
@@ -6220,13 +6224,13 @@
         <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6277,13 +6281,13 @@
         <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>73</v>
@@ -6297,10 +6301,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6311,7 +6315,7 @@
         <v>74</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>73</v>
@@ -6323,13 +6327,13 @@
         <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6380,13 +6384,13 @@
         <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>73</v>
@@ -6400,10 +6404,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6426,13 +6430,13 @@
         <v>73</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6483,7 +6487,7 @@
         <v>73</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>74</v>
@@ -6503,10 +6507,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6514,10 +6518,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>73</v>
@@ -6529,13 +6533,13 @@
         <v>73</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6586,13 +6590,13 @@
         <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>73</v>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="168">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -108,7 +108,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Element</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -247,23 +247,47 @@
 </t>
   </si>
   <si>
-    <t>Base for all elements</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
+    <t>Base</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recordedDate</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.id</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>When this prescription was created</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Information about co prescribers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -279,7 +303,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>BeReferralPrescription.extension</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.extension</t>
   </si>
   <si>
     <t>extensions
@@ -316,62 +343,6 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>BeReferralPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When this prescription was created</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>The prescribing healthcare party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriberNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Number of co-prescribers that must sign the prescription to activate it</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Information about co prescribers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.id</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.extension</t>
-  </si>
-  <si>
     <t>BeReferralPrescription.co-prescriber.modifierExtension</t>
   </si>
   <si>
@@ -420,12 +391,6 @@
     <t>Status of co prescribing status (to sign, signed or refused)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.required</t>
-  </si>
-  <si>
-    <t>Type of mandatory for the signature of the co-prescriber (1= required: the co-prescriber SHALL sign to make the prescription valid, 2= conditionally required: the co-prescriber SHALL sign if the number of co-prescribers with a signature is lower than the number in co-prescriber number 3= optional: the signature does not affect the validity of the prescription, but is for information only</t>
-  </si>
-  <si>
     <t>BeReferralPrescription.patient</t>
   </si>
   <si>
@@ -442,224 +407,131 @@
     <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
   </si>
   <si>
-    <t>BeReferralPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>An identifier for the Prescription Search Support</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.pssRejectionReason</t>
+    <t>BeReferralPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.id</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.extension</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.modifierExtension</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The required discipline of the provider party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>What is prescribed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>The problem (code or reference) that is the main reason for this prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>Care Set Problem</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>Current status</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>Reason current status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>Anatomical place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.note</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
-    <t>Reason for not following the PSS suggestion</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.groupIdentifier</t>
-  </si>
-  <si>
-    <t>An identifier for the bundle this prescription belongs to.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>The original request or prescription triggered this prescription</t>
-  </si>
-  <si>
-    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period of validity of prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>When this prescription is executed, available after start of execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>The latest moment to end this treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>The prescription must have left the draft status before</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.id</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.extension</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.modifierExtension</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>The required discipline of the provider party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>Start and enddate for the particular provider</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>Reference to an organization that will add the performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
-  </si>
-  <si>
-    <t>Period in which the caregiver executes the treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.status</t>
-  </si>
-  <si>
-    <t>Status of the action executed by the performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.statusReason</t>
-  </si>
-  <si>
-    <t>The reason of the status of the action executed by the performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>What is prescribed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.serviceRequestedDetail</t>
-  </si>
-  <si>
-    <t>More detailed specification of the prescribed act</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>The problem (code or reference) that is the main reason for this prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>Care Set Problem</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.status</t>
-  </si>
-  <si>
-    <t>Current status</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>Reason current status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>Status of the treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>Reason treatment status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>Place where the treatment should be executed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.id</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.extension</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.modifierExtension</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>Anatomical place where the treatment should be executed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>Side of the body</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.note</t>
-  </si>
-  <si>
     <t>Additional text notes about the request.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.prescriptionType</t>
+    <t>BeReferralPrescription.intent</t>
   </si>
   <si>
     <t>Proposal, Prolongation, Prescription</t>
@@ -973,7 +845,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK54"/>
+  <dimension ref="A1:AK32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -982,8 +854,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.7265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="56.7265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="55.171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1013,7 +885,7 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1163,9 +1035,7 @@
       <c r="K2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" t="s" s="2">
         <v>21</v>
       </c>
@@ -1218,7 +1088,7 @@
         <v>73</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>74</v>
@@ -1227,21 +1097,21 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1249,10 +1119,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1264,13 +1134,13 @@
         <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1321,13 +1191,13 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1336,26 +1206,26 @@
         <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>73</v>
@@ -1367,17 +1237,15 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>73</v>
@@ -1414,42 +1282,42 @@
         <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1457,10 +1325,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
@@ -1472,13 +1340,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1529,19 +1397,19 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>73</v>
@@ -1549,10 +1417,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1560,10 +1428,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -1575,13 +1443,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1632,13 +1500,13 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
@@ -1647,26 +1515,26 @@
         <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -1678,15 +1546,17 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
         <v>73</v>
@@ -1723,34 +1593,34 @@
         <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -1762,35 +1632,39 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="P8" t="s" s="2">
         <v>73</v>
       </c>
@@ -1838,30 +1712,30 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>73</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1872,7 +1746,7 @@
         <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>73</v>
@@ -1884,13 +1758,13 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1941,19 +1815,19 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>73</v>
@@ -1961,10 +1835,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1975,7 +1849,7 @@
         <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>73</v>
@@ -1987,13 +1861,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2044,13 +1918,13 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>73</v>
@@ -2059,26 +1933,26 @@
         <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>73</v>
@@ -2090,17 +1964,15 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>73</v>
@@ -2137,78 +2009,74 @@
         <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>73</v>
       </c>
@@ -2259,19 +2127,19 @@
         <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -2290,7 +2158,7 @@
         <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -2302,13 +2170,13 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2365,7 +2233,7 @@
         <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>73</v>
@@ -2379,10 +2247,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2390,10 +2258,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>73</v>
@@ -2405,13 +2273,13 @@
         <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2462,13 +2330,13 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>73</v>
@@ -2482,10 +2350,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2493,10 +2361,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>73</v>
@@ -2508,13 +2376,13 @@
         <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2565,13 +2433,13 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>73</v>
@@ -2585,10 +2453,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2596,10 +2464,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>73</v>
@@ -2611,13 +2479,13 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2668,13 +2536,13 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>73</v>
@@ -2688,10 +2556,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2699,10 +2567,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -2714,13 +2582,13 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2771,13 +2639,13 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>73</v>
@@ -2791,10 +2659,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2802,10 +2670,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>73</v>
@@ -2817,13 +2685,13 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2874,19 +2742,19 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>73</v>
@@ -2894,10 +2762,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2908,7 +2776,7 @@
         <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -2920,13 +2788,13 @@
         <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2977,13 +2845,13 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>73</v>
@@ -2992,7 +2860,7 @@
         <v>73</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
@@ -3004,14 +2872,14 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>73</v>
@@ -3023,15 +2891,17 @@
         <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>73</v>
@@ -3068,72 +2938,78 @@
         <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>73</v>
       </c>
@@ -3181,30 +3057,30 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>73</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3227,13 +3103,13 @@
         <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3284,7 +3160,7 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
@@ -3304,10 +3180,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3315,10 +3191,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>73</v>
@@ -3330,13 +3206,13 @@
         <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3387,13 +3263,13 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>73</v>
@@ -3407,10 +3283,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3418,10 +3294,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>73</v>
@@ -3433,13 +3309,13 @@
         <v>73</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3490,13 +3366,13 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>73</v>
@@ -3510,10 +3386,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3521,10 +3397,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>73</v>
@@ -3536,13 +3412,13 @@
         <v>73</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3593,13 +3469,13 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>73</v>
@@ -3613,10 +3489,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3627,7 +3503,7 @@
         <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>73</v>
@@ -3639,13 +3515,13 @@
         <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3696,13 +3572,13 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>73</v>
@@ -3716,10 +3592,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3727,10 +3603,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>73</v>
@@ -3742,13 +3618,13 @@
         <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3799,19 +3675,19 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>73</v>
@@ -3819,10 +3695,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3833,7 +3709,7 @@
         <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>73</v>
@@ -3845,13 +3721,13 @@
         <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3878,13 +3754,11 @@
         <v>73</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>73</v>
@@ -3902,13 +3776,13 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>73</v>
@@ -3917,7 +3791,7 @@
         <v>73</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -3929,14 +3803,14 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>73</v>
@@ -3948,17 +3822,15 @@
         <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>73</v>
@@ -3995,46 +3867,46 @@
         <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4047,26 +3919,22 @@
         <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>73</v>
       </c>
@@ -4114,7 +3982,7 @@
         <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
@@ -4126,18 +3994,18 @@
         <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4148,7 +4016,7 @@
         <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>73</v>
@@ -4160,13 +4028,13 @@
         <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4217,13 +4085,13 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>73</v>
@@ -4237,10 +4105,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4248,10 +4116,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>73</v>
@@ -4263,13 +4131,13 @@
         <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4320,13 +4188,13 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>73</v>
@@ -4335,2276 +4203,6 @@
         <v>73</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y43" s="2"/>
-      <c r="Z43" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O49" s="2"/>
-      <c r="P49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="P50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK54" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="210">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -108,7 +108,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Element</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -247,13 +247,76 @@
 </t>
   </si>
   <si>
-    <t>Base</t>
+    <t>Base for all elements</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>BeReferralPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
@@ -263,14 +326,30 @@
     <t>When this prescription was created</t>
   </si>
   <si>
-    <t>BeReferralPrescription.prescriber</t>
+    <t>BeReferralPrescription.recorder</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
     <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriberNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Number of co-prescribers that must sign the prescription to activate it</t>
   </si>
   <si>
     <t>BeReferralPrescription.co-prescriber</t>
@@ -290,57 +369,7 @@
     <t>BeReferralPrescription.co-prescriber.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>BeReferralPrescription.co-prescriber.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>BeReferralPrescription.co-prescriber.modifierExtension</t>
@@ -391,6 +420,12 @@
     <t>Status of co prescribing status (to sign, signed or refused)</t>
   </si>
   <si>
+    <t>BeReferralPrescription.co-prescriber.required</t>
+  </si>
+  <si>
+    <t>Type of mandatory for the signature of the co-prescriber (1= required: the co-prescriber SHALL sign to make the prescription valid, 2= conditionally required: the co-prescriber SHALL sign if the number of co-prescribers with a signature is lower than the number in co-prescriber number 3= optional: the signature does not affect the validity of the prescription, but is for information only</t>
+  </si>
+  <si>
     <t>BeReferralPrescription.patient</t>
   </si>
   <si>
@@ -407,6 +442,28 @@
     <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
   </si>
   <si>
+    <t>BeReferralPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Search Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Reason for not following the PSS suggestion</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.groupIdentifier</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to.</t>
+  </si>
+  <si>
     <t>BeReferralPrescription.basedOn</t>
   </si>
   <si>
@@ -438,28 +495,34 @@
     <t>The latest moment to end this treatment</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider</t>
+    <t>BeReferralPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.id</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedProvider.extension</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedProvider.modifierExtension</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
+    <t>BeReferralPrescription.intendedPerformer.id</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.extension</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.modifierExtension</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -469,10 +532,46 @@
     <t>The required discipline of the provider party</t>
   </si>
   <si>
+    <t>BeReferralPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>Start and enddate for the particular provider</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>Reference to an organization that will add the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
+  </si>
+  <si>
+    <t>Period in which the caregiver executes the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>Status of the action executed by the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.statusReason</t>
+  </si>
+  <si>
+    <t>The reason of the status of the action executed by the performer</t>
+  </si>
+  <si>
     <t>BeReferralPrescription.serviceRequested</t>
   </si>
   <si>
     <t>What is prescribed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequestedDetail</t>
+  </si>
+  <si>
+    <t>More detailed specification of the prescribed act</t>
   </si>
   <si>
     <t>BeReferralPrescription.problemCode</t>
@@ -515,23 +614,52 @@
     <t>Reason current status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodySite</t>
+    <t>BeReferralPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>Status of the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>Reason treatment status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>Place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.id</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.extension</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.modifierExtension</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.bodySite</t>
   </si>
   <si>
     <t>Anatomical place where the treatment should be executed</t>
   </si>
   <si>
+    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
+  </si>
+  <si>
+    <t>Side of the body</t>
+  </si>
+  <si>
     <t>BeReferralPrescription.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
     <t>Additional text notes about the request.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intent</t>
+    <t>BeReferralPrescription.prescriptionType</t>
   </si>
   <si>
     <t>Proposal, Prolongation, Prescription</t>
@@ -845,7 +973,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK32"/>
+  <dimension ref="A1:AK54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -854,8 +982,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="55.171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.7265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="56.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -885,7 +1013,7 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1035,7 +1163,9 @@
       <c r="K2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="M2" t="s" s="2">
         <v>21</v>
       </c>
@@ -1088,7 +1218,7 @@
         <v>73</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>74</v>
@@ -1097,21 +1227,21 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1119,10 +1249,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1134,13 +1264,13 @@
         <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1191,13 +1321,13 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1206,26 +1336,26 @@
         <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>73</v>
@@ -1237,15 +1367,17 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>73</v>
@@ -1282,42 +1414,42 @@
         <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1325,10 +1457,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
@@ -1340,13 +1472,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1397,19 +1529,19 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>73</v>
@@ -1417,10 +1549,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1428,10 +1560,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -1443,13 +1575,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1500,13 +1632,13 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
@@ -1515,26 +1647,26 @@
         <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -1546,17 +1678,15 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
         <v>73</v>
@@ -1593,34 +1723,34 @@
         <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -1632,39 +1762,35 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="J8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>111</v>
-      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>73</v>
       </c>
@@ -1712,30 +1838,30 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>113</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1746,7 +1872,7 @@
         <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>73</v>
@@ -1758,13 +1884,13 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1815,19 +1941,19 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>73</v>
@@ -1835,10 +1961,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1849,7 +1975,7 @@
         <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>73</v>
@@ -1861,13 +1987,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1918,13 +2044,13 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>73</v>
@@ -1933,26 +2059,26 @@
         <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>73</v>
@@ -1964,15 +2090,17 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>73</v>
@@ -2009,74 +2137,78 @@
         <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>73</v>
       </c>
@@ -2127,19 +2259,19 @@
         <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>73</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
@@ -2158,7 +2290,7 @@
         <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -2170,13 +2302,13 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="M13" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2233,7 +2365,7 @@
         <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>73</v>
@@ -2247,10 +2379,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2258,10 +2390,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>73</v>
@@ -2273,13 +2405,13 @@
         <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2330,13 +2462,13 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>73</v>
@@ -2350,10 +2482,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2361,10 +2493,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>73</v>
@@ -2376,13 +2508,13 @@
         <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2433,13 +2565,13 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>73</v>
@@ -2453,10 +2585,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2464,10 +2596,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>73</v>
@@ -2479,13 +2611,13 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2536,13 +2668,13 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>73</v>
@@ -2556,10 +2688,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2567,10 +2699,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -2582,13 +2714,13 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2639,13 +2771,13 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>73</v>
@@ -2659,10 +2791,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2670,10 +2802,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>73</v>
@@ -2685,13 +2817,13 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2742,19 +2874,19 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>73</v>
@@ -2762,10 +2894,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2776,7 +2908,7 @@
         <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -2788,13 +2920,13 @@
         <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2845,13 +2977,13 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>73</v>
@@ -2860,7 +2992,7 @@
         <v>73</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
@@ -2872,14 +3004,14 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>73</v>
@@ -2891,17 +3023,15 @@
         <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>73</v>
@@ -2938,78 +3068,72 @@
         <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>73</v>
       </c>
@@ -3057,30 +3181,30 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>113</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3103,13 +3227,13 @@
         <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3160,7 +3284,7 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
@@ -3180,10 +3304,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3191,10 +3315,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>73</v>
@@ -3206,13 +3330,13 @@
         <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3263,13 +3387,13 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>73</v>
@@ -3283,10 +3407,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3294,10 +3418,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>73</v>
@@ -3309,13 +3433,13 @@
         <v>73</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3366,13 +3490,13 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>73</v>
@@ -3386,10 +3510,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3397,10 +3521,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>73</v>
@@ -3412,13 +3536,13 @@
         <v>73</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3469,13 +3593,13 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>73</v>
@@ -3489,10 +3613,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3503,7 +3627,7 @@
         <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>73</v>
@@ -3515,13 +3639,13 @@
         <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3572,13 +3696,13 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>73</v>
@@ -3592,10 +3716,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3603,10 +3727,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>73</v>
@@ -3618,13 +3742,13 @@
         <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3675,19 +3799,19 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>73</v>
@@ -3695,10 +3819,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3709,7 +3833,7 @@
         <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>73</v>
@@ -3721,13 +3845,13 @@
         <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3754,11 +3878,13 @@
         <v>73</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>73</v>
@@ -3776,13 +3902,13 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>73</v>
@@ -3791,7 +3917,7 @@
         <v>73</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
@@ -3803,14 +3929,14 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>73</v>
@@ -3822,15 +3948,17 @@
         <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>73</v>
@@ -3867,46 +3995,46 @@
         <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -3919,22 +4047,26 @@
         <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>73</v>
       </c>
@@ -3982,7 +4114,7 @@
         <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
@@ -3994,18 +4126,18 @@
         <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>73</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4016,7 +4148,7 @@
         <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>73</v>
@@ -4028,13 +4160,13 @@
         <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4085,13 +4217,13 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>73</v>
@@ -4105,10 +4237,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4116,10 +4248,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>73</v>
@@ -4131,13 +4263,13 @@
         <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4188,21 +4320,2291 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="B33" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="Y43" s="2"/>
+      <c r="Z43" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-referralprescription.xlsx
+++ b/branches/StructureDefinition-be-model-referralprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="206">
   <si>
     <t>Property</t>
   </si>
@@ -102,13 +102,10 @@
     <t>Type</t>
   </si>
   <si>
-    <t>BeReferralPrescription</t>
-  </si>
-  <si>
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Element</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription</t>
   </si>
   <si>
     <t/>
@@ -247,23 +247,63 @@
 </t>
   </si>
   <si>
-    <t>Base for all elements</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
+    <t>Base</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.recordedDate</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.id</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>When this prescription was created</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.prescriber</t>
+  </si>
+  <si>
+    <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.co-prescriberNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Number of co-prescribers that must sign the prescription to activate it</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Information about co prescribers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.co-prescriber.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -279,7 +319,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>BeReferralPrescription.extension</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.co-prescriber.extension</t>
   </si>
   <si>
     <t>extensions
@@ -316,63 +359,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>BeReferralPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When this prescription was created</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>The prescribing healthcare party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriberNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Number of co-prescribers that must sign the prescription to activate it</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Information about co prescribers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.id</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.extension</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.modifierExtension</t>
+    <t>be-model-referralprescription.co-prescriber.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -398,13 +385,13 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
+    <t>be-model-referralprescription.co-prescriber.co-prescriber</t>
   </si>
   <si>
     <t>The co-prescriber party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriberType</t>
+    <t>be-model-referralprescription.co-prescriber.co-prescriberType</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -414,25 +401,25 @@
     <t>Type of the practitioner</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.status</t>
+    <t>be-model-referralprescription.co-prescriber.status</t>
   </si>
   <si>
     <t>Status of co prescribing status (to sign, signed or refused)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.required</t>
+    <t>be-model-referralprescription.co-prescriber.required</t>
   </si>
   <si>
     <t>Type of mandatory for the signature of the co-prescriber (1= required: the co-prescriber SHALL sign to make the prescription valid, 2= conditionally required: the co-prescriber SHALL sign if the number of co-prescribers with a signature is lower than the number in co-prescriber number 3= optional: the signature does not affect the validity of the prescription, but is for information only</t>
   </si>
   <si>
-    <t>BeReferralPrescription.patient</t>
+    <t>be-model-referralprescription.patient</t>
   </si>
   <si>
     <t>The SSIN of the person for which the referral is prescribed.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.prescriptionNumber</t>
+    <t>be-model-referralprescription.prescriptionNumber</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
@@ -442,13 +429,13 @@
     <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
   </si>
   <si>
-    <t>BeReferralPrescription.pssNumber</t>
+    <t>be-model-referralprescription.pssNumber</t>
   </si>
   <si>
     <t>An identifier for the Prescription Search Support</t>
   </si>
   <si>
-    <t>BeReferralPrescription.pssRejectionReason</t>
+    <t>be-model-referralprescription.pssRejectionReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
@@ -458,13 +445,13 @@
     <t>Reason for not following the PSS suggestion</t>
   </si>
   <si>
-    <t>BeReferralPrescription.groupIdentifier</t>
+    <t>be-model-referralprescription.groupIdentifier</t>
   </si>
   <si>
     <t>An identifier for the bundle this prescription belongs to.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.basedOn</t>
+    <t>be-model-referralprescription.basedOn</t>
   </si>
   <si>
     <t>The original request or prescription triggered this prescription</t>
@@ -473,7 +460,7 @@
     <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.validitionPeriod</t>
+    <t>be-model-referralprescription.validitionPeriod</t>
   </si>
   <si>
     <t xml:space="preserve">Period
@@ -483,46 +470,46 @@
     <t>Period of validity of prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentPeriod</t>
+    <t>be-model-referralprescription.treatmentPeriod</t>
   </si>
   <si>
     <t>When this prescription is executed, available after start of execution</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+    <t>be-model-referralprescription.treatmentValidationEndDate</t>
   </si>
   <si>
     <t>The latest moment to end this treatment</t>
   </si>
   <si>
-    <t>BeReferralPrescription.creationEndDate</t>
+    <t>be-model-referralprescription.creationEndDate</t>
   </si>
   <si>
     <t>The prescription must have left the draft status before</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer</t>
+    <t>be-model-referralprescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.id</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.extension</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.modifierExtension</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.performer</t>
+    <t>be-model-referralprescription.intendedPerformer.id</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.intendedPerformer.extension</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.intendedPerformer.modifierExtension</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.discipline</t>
+    <t>be-model-referralprescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -532,61 +519,61 @@
     <t>The required discipline of the provider party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.period</t>
+    <t>be-model-referralprescription.intendedPerformer.period</t>
   </si>
   <si>
     <t>Start and enddate for the particular provider</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.organization</t>
+    <t>be-model-referralprescription.intendedPerformer.organization</t>
   </si>
   <si>
     <t>Reference to an organization that will add the performer</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
+    <t>be-model-referralprescription.intendedPerformer.executionPeriod</t>
   </si>
   <si>
     <t>Period in which the caregiver executes the treatment</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.status</t>
+    <t>be-model-referralprescription.intendedPerformer.status</t>
   </si>
   <si>
     <t>Status of the action executed by the performer</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.statusReason</t>
+    <t>be-model-referralprescription.intendedPerformer.statusReason</t>
   </si>
   <si>
     <t>The reason of the status of the action executed by the performer</t>
   </si>
   <si>
-    <t>BeReferralPrescription.serviceRequested</t>
+    <t>be-model-referralprescription.serviceRequested</t>
   </si>
   <si>
     <t>What is prescribed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.serviceRequestedDetail</t>
+    <t>be-model-referralprescription.serviceRequestedDetail</t>
   </si>
   <si>
     <t>More detailed specification of the prescribed act</t>
   </si>
   <si>
-    <t>BeReferralPrescription.problemCode</t>
+    <t>be-model-referralprescription.problemCode</t>
   </si>
   <si>
     <t>The problem (code or reference) that is the main reason for this prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.supportingInfo</t>
+    <t>be-model-referralprescription.supportingInfo</t>
   </si>
   <si>
     <t>Care Set Problem</t>
   </si>
   <si>
-    <t>BeReferralPrescription.resultReceiver</t>
+    <t>be-model-referralprescription.resultReceiver</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -596,7 +583,7 @@
     <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
   </si>
   <si>
-    <t>BeReferralPrescription.status</t>
+    <t>be-model-referralprescription.status</t>
   </si>
   <si>
     <t>Current status</t>
@@ -608,58 +595,58 @@
     <t>http://hl7.org/fhir/ValueSet/request-status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.statusReason</t>
+    <t>be-model-referralprescription.statusReason</t>
   </si>
   <si>
     <t>Reason current status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentStatus</t>
+    <t>be-model-referralprescription.treatmentStatus</t>
   </si>
   <si>
     <t>Status of the treatment</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentStatusReason</t>
+    <t>be-model-referralprescription.treatmentStatusReason</t>
   </si>
   <si>
     <t>Reason treatment status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodyLocation</t>
+    <t>be-model-referralprescription.bodyLocation</t>
   </si>
   <si>
     <t>Place where the treatment should be executed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodyLocation.id</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.extension</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.modifierExtension</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.bodySite</t>
+    <t>be-model-referralprescription.bodyLocation.id</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.bodyLocation.extension</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.bodyLocation.modifierExtension</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.bodyLocation.bodySite</t>
   </si>
   <si>
     <t>Anatomical place where the treatment should be executed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
+    <t>be-model-referralprescription.bodyLocation.bodyLaterality</t>
   </si>
   <si>
     <t>Side of the body</t>
   </si>
   <si>
-    <t>BeReferralPrescription.note</t>
+    <t>be-model-referralprescription.note</t>
   </si>
   <si>
     <t>Additional text notes about the request.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.prescriptionType</t>
+    <t>be-model-referralprescription.prescriptionType</t>
   </si>
   <si>
     <t>Proposal, Prolongation, Prescription</t>
@@ -842,7 +829,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -939,31 +928,31 @@
         <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +962,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK54"/>
+  <dimension ref="A1:AK52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -982,8 +971,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.7265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="56.7265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="63.203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1013,7 +1002,7 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="61.390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1022,123 +1011,123 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>71</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1164,7 +1153,7 @@
         <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>21</v>
@@ -1218,7 +1207,7 @@
         <v>73</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>74</v>
@@ -1227,21 +1216,21 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1249,10 +1238,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1264,13 +1253,13 @@
         <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1321,13 +1310,13 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1336,26 +1325,26 @@
         <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>73</v>
@@ -1367,17 +1356,15 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>73</v>
@@ -1414,42 +1401,42 @@
         <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1457,10 +1444,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
@@ -1472,13 +1459,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1529,13 +1516,13 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
@@ -1549,10 +1536,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1560,10 +1547,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -1575,13 +1562,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1632,13 +1619,13 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
@@ -1652,10 +1639,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1663,10 +1650,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -1678,13 +1665,13 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1735,19 +1722,19 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>73</v>
@@ -1755,10 +1742,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1766,10 +1753,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>73</v>
@@ -1781,13 +1768,13 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1838,13 +1825,13 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>73</v>
@@ -1853,19 +1840,19 @@
         <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1884,15 +1871,17 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>73</v>
@@ -1929,16 +1918,16 @@
         <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>109</v>
@@ -1953,50 +1942,54 @@
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="P10" t="s" s="2">
         <v>73</v>
       </c>
@@ -2044,41 +2037,41 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>73</v>
@@ -2090,17 +2083,15 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>73</v>
@@ -2137,78 +2128,74 @@
         <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>73</v>
       </c>
@@ -2259,27 +2246,27 @@
         <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2290,7 +2277,7 @@
         <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -2302,13 +2289,13 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2359,13 +2346,13 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>73</v>
@@ -2379,10 +2366,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2390,10 +2377,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>73</v>
@@ -2405,7 +2392,7 @@
         <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>127</v>
@@ -2462,13 +2449,13 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>73</v>
@@ -2493,10 +2480,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>73</v>
@@ -2508,7 +2495,7 @@
         <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>129</v>
@@ -2568,10 +2555,10 @@
         <v>128</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>73</v>
@@ -2596,10 +2583,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>73</v>
@@ -2611,13 +2598,13 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2671,10 +2658,10 @@
         <v>130</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>73</v>
@@ -2688,10 +2675,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2699,10 +2686,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -2714,13 +2701,13 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2771,13 +2758,13 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>73</v>
@@ -2791,10 +2778,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2802,10 +2789,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>73</v>
@@ -2817,13 +2804,13 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2874,13 +2861,13 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>73</v>
@@ -2894,10 +2881,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2908,7 +2895,7 @@
         <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -2920,14 +2907,12 @@
         <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2977,13 +2962,13 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>73</v>
@@ -2997,10 +2982,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3011,7 +2996,7 @@
         <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>73</v>
@@ -3023,13 +3008,13 @@
         <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>141</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3080,13 +3065,13 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>73</v>
@@ -3100,10 +3085,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3111,10 +3096,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>73</v>
@@ -3126,12 +3111,14 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3181,13 +3168,13 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>73</v>
@@ -3201,10 +3188,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3215,7 +3202,7 @@
         <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>73</v>
@@ -3227,13 +3214,13 @@
         <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3284,13 +3271,13 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>73</v>
@@ -3304,10 +3291,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3315,10 +3302,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>73</v>
@@ -3330,7 +3317,7 @@
         <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>149</v>
@@ -3387,13 +3374,13 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>73</v>
@@ -3421,7 +3408,7 @@
         <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>73</v>
@@ -3433,7 +3420,7 @@
         <v>73</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>151</v>
@@ -3496,7 +3483,7 @@
         <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>73</v>
@@ -3521,10 +3508,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>73</v>
@@ -3536,7 +3523,7 @@
         <v>73</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>153</v>
@@ -3596,16 +3583,16 @@
         <v>152</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>73</v>
@@ -3627,7 +3614,7 @@
         <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>73</v>
@@ -3639,13 +3626,13 @@
         <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3696,13 +3683,13 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>73</v>
@@ -3711,23 +3698,23 @@
         <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>75</v>
@@ -3742,15 +3729,17 @@
         <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>73</v>
@@ -3787,22 +3776,22 @@
         <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>75</v>
@@ -3811,50 +3800,54 @@
         <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>73</v>
       </c>
@@ -3902,41 +3895,41 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>73</v>
@@ -3948,17 +3941,15 @@
         <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>73</v>
@@ -3995,78 +3986,74 @@
         <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>73</v>
       </c>
@@ -4114,30 +4101,30 @@
         <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4148,7 +4135,7 @@
         <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>73</v>
@@ -4160,13 +4147,13 @@
         <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4217,13 +4204,13 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>73</v>
@@ -4237,10 +4224,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4248,10 +4235,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>73</v>
@@ -4263,7 +4250,7 @@
         <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>165</v>
@@ -4320,13 +4307,13 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>73</v>
@@ -4354,7 +4341,7 @@
         <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>73</v>
@@ -4366,7 +4353,7 @@
         <v>73</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>167</v>
@@ -4429,7 +4416,7 @@
         <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>73</v>
@@ -4457,7 +4444,7 @@
         <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>73</v>
@@ -4469,7 +4456,7 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>169</v>
@@ -4532,7 +4519,7 @@
         <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>73</v>
@@ -4560,7 +4547,7 @@
         <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>73</v>
@@ -4572,7 +4559,7 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>171</v>
@@ -4635,7 +4622,7 @@
         <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>73</v>
@@ -4660,10 +4647,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>73</v>
@@ -4675,7 +4662,7 @@
         <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>173</v>
@@ -4735,10 +4722,10 @@
         <v>172</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>73</v>
@@ -4766,7 +4753,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>73</v>
@@ -4778,7 +4765,7 @@
         <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>175</v>
@@ -4841,7 +4828,7 @@
         <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>73</v>
@@ -4866,10 +4853,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>73</v>
@@ -4881,7 +4868,7 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>177</v>
@@ -4941,10 +4928,10 @@
         <v>176</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>73</v>
@@ -4972,7 +4959,7 @@
         <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>73</v>
@@ -4984,7 +4971,7 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>179</v>
@@ -5047,7 +5034,7 @@
         <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>73</v>
@@ -5072,10 +5059,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>73</v>
@@ -5087,13 +5074,13 @@
         <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5147,10 +5134,10 @@
         <v>180</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>73</v>
@@ -5164,10 +5151,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5175,10 +5162,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>73</v>
@@ -5190,13 +5177,13 @@
         <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5223,13 +5210,11 @@
         <v>73</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>73</v>
@@ -5247,13 +5232,13 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>73</v>
@@ -5267,10 +5252,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5278,10 +5263,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>73</v>
@@ -5293,13 +5278,13 @@
         <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5350,13 +5335,13 @@
         <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>73</v>
@@ -5370,10 +5355,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5381,10 +5366,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>73</v>
@@ -5396,13 +5381,13 @@
         <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5429,35 +5414,37 @@
         <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Y43" s="2"/>
-      <c r="Z43" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="AG43" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>73</v>
@@ -5485,7 +5472,7 @@
         <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>73</v>
@@ -5497,7 +5484,7 @@
         <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>192</v>
@@ -5560,7 +5547,7 @@
         <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>73</v>
@@ -5588,7 +5575,7 @@
         <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>73</v>
@@ -5600,7 +5587,7 @@
         <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>194</v>
@@ -5663,13 +5650,13 @@
         <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>73</v>
@@ -5691,7 +5678,7 @@
         <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>73</v>
@@ -5703,13 +5690,13 @@
         <v>73</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5760,13 +5747,13 @@
         <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>73</v>
@@ -5775,19 +5762,19 @@
         <v>73</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -5806,15 +5793,17 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>73</v>
@@ -5851,19 +5840,19 @@
         <v>73</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
@@ -5875,50 +5864,54 @@
         <v>73</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>73</v>
       </c>
@@ -5966,41 +5959,41 @@
         <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>73</v>
@@ -6012,17 +6005,15 @@
         <v>73</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>73</v>
@@ -6059,78 +6050,74 @@
         <v>73</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>73</v>
       </c>
@@ -6178,22 +6165,22 @@
         <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51">
@@ -6212,7 +6199,7 @@
         <v>74</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>73</v>
@@ -6224,7 +6211,7 @@
         <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>203</v>
@@ -6287,7 +6274,7 @@
         <v>74</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>73</v>
@@ -6312,10 +6299,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>73</v>
@@ -6327,7 +6314,7 @@
         <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>205</v>
@@ -6387,10 +6374,10 @@
         <v>204</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>73</v>
@@ -6399,212 +6386,6 @@
         <v>73</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK54" t="s" s="2">
         <v>73</v>
       </c>
     </row>
